--- a/template.xlsx
+++ b/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\graduation_requirement_computation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40022FD6-CBE7-406D-B7F9-EDFA8633DD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DF03E3-03D6-4EBD-8C84-D428541CFFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,17 +34,175 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="53">
   <si>
     <t>수집 시작 시기</t>
+  </si>
+  <si>
+    <t>최초개설년도</t>
+  </si>
+  <si>
+    <t>최초개설학기</t>
+  </si>
+  <si>
+    <t>전공분야코드</t>
+  </si>
+  <si>
+    <t>난이도</t>
+  </si>
+  <si>
+    <t>일련번호</t>
+  </si>
+  <si>
+    <t>교과목명</t>
+  </si>
+  <si>
+    <t>학점</t>
+  </si>
+  <si>
+    <t>수강횟수</t>
+  </si>
+  <si>
+    <t>수강연도</t>
+  </si>
+  <si>
+    <t>수강학기</t>
+  </si>
+  <si>
+    <t>과목명</t>
+  </si>
+  <si>
+    <t>평점</t>
+  </si>
+  <si>
+    <t>총 수강 과목</t>
+  </si>
+  <si>
+    <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 개설
+학기 설명</t>
+  </si>
+  <si>
+    <t>1: 1학기, 2: 여름학기
+3: 2학기, 4: 겨울학기</t>
+  </si>
+  <si>
+    <t>HUS : 문사철</t>
+  </si>
+  <si>
+    <t>PPE : 철사과</t>
+  </si>
+  <si>
+    <t>GSC : 일반선택</t>
+  </si>
+  <si>
+    <t>학사 : 생명과학부</t>
+  </si>
+  <si>
+    <t>대학원 : 공통과목</t>
+  </si>
+  <si>
+    <t>학사 : (舊)화학과</t>
+  </si>
+  <si>
+    <t>학사·대학원 : 전기전자컴퓨터공학부</t>
+  </si>
+  <si>
+    <t>대학원 : 지구·환경공학부</t>
+  </si>
+  <si>
+    <t>학사 : 기초교육학부</t>
+  </si>
+  <si>
+    <t>대학원 : (舊)전기전자컴퓨터공학부</t>
+  </si>
+  <si>
+    <t>대학원 : 생명공학부</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)의생명공학  |  대학원 : 의생명공학과</t>
+  </si>
+  <si>
+    <t>대학원 : 기계공학부</t>
+  </si>
+  <si>
+    <t>대학원 : 신소재공학부</t>
+  </si>
+  <si>
+    <t>대학원 : 나노바이오재료전자공학과</t>
+  </si>
+  <si>
+    <t>대학원 : 물리·광과학과</t>
+  </si>
+  <si>
+    <t>학사 : 물리·광과학과</t>
+  </si>
+  <si>
+    <t>학사·대학원 : 화학과</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)에너지  |  대학원 : 융합기술학제학부 - 에너지</t>
+  </si>
+  <si>
+    <t>학사 : 지구·환경공학부</t>
+  </si>
+  <si>
+    <t>학사 : 신소재공학부</t>
+  </si>
+  <si>
+    <t>학사 : 기계공학부</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)문화기술  |  대학원:융합기술학제학부 - 문화기술</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)수학</t>
+  </si>
+  <si>
+    <t>대학원 : 융합기술학제학부 - 지능로봇</t>
+  </si>
+  <si>
+    <t>학사 : 공통과목</t>
+  </si>
+  <si>
+    <t>대학원 : (부전공)석사 창업</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)지능로봇</t>
+  </si>
+  <si>
+    <t>대학원 : AI 대학원</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)에너지  |  대학원 : 에너지융합대학원</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)인문사회 - 경제·경영</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)인문사회 - 문화와 역사</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)인문사회 - 마음과 행동</t>
+  </si>
+  <si>
+    <t>대학원 : (부전공)기술혁신</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)인문사회 - 공공정책·법정치사회</t>
+  </si>
+  <si>
+    <t>학사 : (부전공)인문사회 - 과학기술과 사회</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,16 +217,67 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF548235"/>
+        <bgColor rgb="FF548235"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7DEE8"/>
+        <bgColor rgb="FFB7DEE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF31869B"/>
+        <bgColor rgb="FF31869B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FFFCE4D6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC65911"/>
+        <bgColor rgb="FFC65911"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -76,12 +285,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -362,24 +636,1191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B1:KK5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="1" spans="2:297" s="3" customFormat="1" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:297" s="3" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="2" t="str">
         <f>CONCATENATE(B6,"년 ",IF(C6="1",1,IF(C6="2","여름",IF(C6="3","가을","겨울"))),"학기")</f>
         <v>년 겨울학기</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:297" s="3" customFormat="1" ht="7.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:297" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="K4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="T4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+      <c r="AC4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD4" s="11"/>
+      <c r="AE4" s="11"/>
+      <c r="AF4" s="11"/>
+      <c r="AG4" s="11"/>
+      <c r="AH4" s="11"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AL4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM4" s="11"/>
+      <c r="AN4" s="11"/>
+      <c r="AO4" s="11"/>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="11"/>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="11"/>
+      <c r="AU4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="AV4" s="11"/>
+      <c r="AW4" s="11"/>
+      <c r="AX4" s="11"/>
+      <c r="AY4" s="11"/>
+      <c r="AZ4" s="11"/>
+      <c r="BA4" s="11"/>
+      <c r="BB4" s="11"/>
+      <c r="BD4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BE4" s="11"/>
+      <c r="BF4" s="11"/>
+      <c r="BG4" s="11"/>
+      <c r="BH4" s="11"/>
+      <c r="BI4" s="11"/>
+      <c r="BJ4" s="11"/>
+      <c r="BK4" s="11"/>
+      <c r="BM4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="BN4" s="11"/>
+      <c r="BO4" s="11"/>
+      <c r="BP4" s="11"/>
+      <c r="BQ4" s="11"/>
+      <c r="BR4" s="11"/>
+      <c r="BS4" s="11"/>
+      <c r="BT4" s="11"/>
+      <c r="BV4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW4" s="11"/>
+      <c r="BX4" s="11"/>
+      <c r="BY4" s="11"/>
+      <c r="BZ4" s="11"/>
+      <c r="CA4" s="11"/>
+      <c r="CB4" s="11"/>
+      <c r="CC4" s="11"/>
+      <c r="CE4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="CF4" s="11"/>
+      <c r="CG4" s="11"/>
+      <c r="CH4" s="11"/>
+      <c r="CI4" s="11"/>
+      <c r="CJ4" s="11"/>
+      <c r="CK4" s="11"/>
+      <c r="CL4" s="11"/>
+      <c r="CN4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="CO4" s="11"/>
+      <c r="CP4" s="11"/>
+      <c r="CQ4" s="11"/>
+      <c r="CR4" s="11"/>
+      <c r="CS4" s="11"/>
+      <c r="CT4" s="11"/>
+      <c r="CU4" s="11"/>
+      <c r="CW4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="CX4" s="11"/>
+      <c r="CY4" s="11"/>
+      <c r="CZ4" s="11"/>
+      <c r="DA4" s="11"/>
+      <c r="DB4" s="11"/>
+      <c r="DC4" s="11"/>
+      <c r="DD4" s="11"/>
+      <c r="DF4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="DG4" s="11"/>
+      <c r="DH4" s="11"/>
+      <c r="DI4" s="11"/>
+      <c r="DJ4" s="11"/>
+      <c r="DK4" s="11"/>
+      <c r="DL4" s="11"/>
+      <c r="DM4" s="11"/>
+      <c r="DO4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="DP4" s="11"/>
+      <c r="DQ4" s="11"/>
+      <c r="DR4" s="11"/>
+      <c r="DS4" s="11"/>
+      <c r="DT4" s="11"/>
+      <c r="DU4" s="11"/>
+      <c r="DV4" s="11"/>
+      <c r="DX4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="DY4" s="11"/>
+      <c r="DZ4" s="11"/>
+      <c r="EA4" s="11"/>
+      <c r="EB4" s="11"/>
+      <c r="EC4" s="11"/>
+      <c r="ED4" s="11"/>
+      <c r="EE4" s="11"/>
+      <c r="EG4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="EH4" s="11"/>
+      <c r="EI4" s="11"/>
+      <c r="EJ4" s="11"/>
+      <c r="EK4" s="11"/>
+      <c r="EL4" s="11"/>
+      <c r="EM4" s="11"/>
+      <c r="EN4" s="11"/>
+      <c r="EP4" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="EQ4" s="11"/>
+      <c r="ER4" s="11"/>
+      <c r="ES4" s="11"/>
+      <c r="ET4" s="11"/>
+      <c r="EU4" s="11"/>
+      <c r="EV4" s="11"/>
+      <c r="EW4" s="11"/>
+      <c r="EY4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="EZ4" s="11"/>
+      <c r="FA4" s="11"/>
+      <c r="FB4" s="11"/>
+      <c r="FC4" s="11"/>
+      <c r="FD4" s="11"/>
+      <c r="FE4" s="11"/>
+      <c r="FF4" s="11"/>
+      <c r="FH4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="FI4" s="11"/>
+      <c r="FJ4" s="11"/>
+      <c r="FK4" s="11"/>
+      <c r="FL4" s="11"/>
+      <c r="FM4" s="11"/>
+      <c r="FN4" s="11"/>
+      <c r="FO4" s="11"/>
+      <c r="FQ4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="FR4" s="11"/>
+      <c r="FS4" s="11"/>
+      <c r="FT4" s="11"/>
+      <c r="FU4" s="11"/>
+      <c r="FV4" s="11"/>
+      <c r="FW4" s="11"/>
+      <c r="FX4" s="11"/>
+      <c r="FZ4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="GA4" s="11"/>
+      <c r="GB4" s="11"/>
+      <c r="GC4" s="11"/>
+      <c r="GD4" s="11"/>
+      <c r="GE4" s="11"/>
+      <c r="GF4" s="11"/>
+      <c r="GG4" s="11"/>
+      <c r="GI4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="GJ4" s="11"/>
+      <c r="GK4" s="11"/>
+      <c r="GL4" s="11"/>
+      <c r="GM4" s="11"/>
+      <c r="GN4" s="11"/>
+      <c r="GO4" s="11"/>
+      <c r="GP4" s="11"/>
+      <c r="GR4" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="GS4" s="11"/>
+      <c r="GT4" s="11"/>
+      <c r="GU4" s="11"/>
+      <c r="GV4" s="11"/>
+      <c r="GW4" s="11"/>
+      <c r="GX4" s="11"/>
+      <c r="GY4" s="11"/>
+      <c r="HA4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="HB4" s="11"/>
+      <c r="HC4" s="11"/>
+      <c r="HD4" s="11"/>
+      <c r="HE4" s="11"/>
+      <c r="HF4" s="11"/>
+      <c r="HG4" s="11"/>
+      <c r="HH4" s="11"/>
+      <c r="HJ4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="HK4" s="11"/>
+      <c r="HL4" s="11"/>
+      <c r="HM4" s="11"/>
+      <c r="HN4" s="11"/>
+      <c r="HO4" s="11"/>
+      <c r="HP4" s="11"/>
+      <c r="HQ4" s="11"/>
+      <c r="HS4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="HT4" s="11"/>
+      <c r="HU4" s="11"/>
+      <c r="HV4" s="11"/>
+      <c r="HW4" s="11"/>
+      <c r="HX4" s="11"/>
+      <c r="HY4" s="11"/>
+      <c r="HZ4" s="11"/>
+      <c r="IB4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="IC4" s="11"/>
+      <c r="ID4" s="11"/>
+      <c r="IE4" s="11"/>
+      <c r="IF4" s="11"/>
+      <c r="IG4" s="11"/>
+      <c r="IH4" s="11"/>
+      <c r="II4" s="11"/>
+      <c r="IK4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="IL4" s="11"/>
+      <c r="IM4" s="11"/>
+      <c r="IN4" s="11"/>
+      <c r="IO4" s="11"/>
+      <c r="IP4" s="11"/>
+      <c r="IQ4" s="11"/>
+      <c r="IR4" s="11"/>
+      <c r="IT4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="IU4" s="11"/>
+      <c r="IV4" s="11"/>
+      <c r="IW4" s="11"/>
+      <c r="IX4" s="11"/>
+      <c r="IY4" s="11"/>
+      <c r="IZ4" s="11"/>
+      <c r="JA4" s="11"/>
+      <c r="JC4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="JD4" s="11"/>
+      <c r="JE4" s="11"/>
+      <c r="JF4" s="11"/>
+      <c r="JG4" s="11"/>
+      <c r="JH4" s="11"/>
+      <c r="JI4" s="11"/>
+      <c r="JJ4" s="11"/>
+      <c r="JL4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="JM4" s="11"/>
+      <c r="JN4" s="11"/>
+      <c r="JO4" s="11"/>
+      <c r="JP4" s="11"/>
+      <c r="JQ4" s="11"/>
+      <c r="JR4" s="11"/>
+      <c r="JS4" s="11"/>
+      <c r="JU4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="JV4" s="11"/>
+      <c r="JW4" s="11"/>
+      <c r="JX4" s="11"/>
+      <c r="JY4" s="11"/>
+      <c r="JZ4" s="11"/>
+      <c r="KA4" s="11"/>
+      <c r="KB4" s="11"/>
+      <c r="KD4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="KE4" s="11"/>
+      <c r="KF4" s="11"/>
+      <c r="KG4" s="11"/>
+      <c r="KH4" s="11"/>
+      <c r="KI4" s="11"/>
+      <c r="KJ4" s="11"/>
+      <c r="KK4" s="11"/>
+    </row>
+    <row r="5" spans="2:297" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AQ5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AU5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AW5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BF5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BI5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BK5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BM5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BO5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="BS5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BT5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="BV5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="BX5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CA5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="CB5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CC5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CE5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CF5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CG5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="CK5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CL5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CN5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CP5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CQ5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CR5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="CS5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="CT5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="CU5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="CW5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="CX5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="CY5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DA5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="DB5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="DC5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DD5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="DF5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DG5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="DH5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="DI5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DJ5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="DK5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="DL5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DM5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="DO5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DP5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="DQ5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="DR5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="DS5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="DT5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="DU5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="DV5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="DX5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="DY5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="DZ5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="EA5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="EB5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="EC5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="ED5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EE5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="EG5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EH5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="EI5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="EJ5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="EK5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="EL5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="EM5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EN5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="EP5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EQ5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="ER5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="ES5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="ET5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="EU5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="EV5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="EW5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="EY5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="EZ5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="FA5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="FB5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="FC5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="FD5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="FE5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="FF5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FH5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="FI5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="FJ5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="FK5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="FL5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="FM5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="FN5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="FO5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FQ5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="FR5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="FS5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="FT5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="FU5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="FV5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="FW5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="FX5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="FZ5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="GA5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="GB5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="GC5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="GD5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="GE5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="GF5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GG5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="GI5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="GJ5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="GK5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="GL5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="GM5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="GN5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="GO5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GP5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="GR5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="GS5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="GT5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="GU5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="GV5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="GW5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="GX5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="GY5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="HA5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="HB5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="HC5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="HD5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="HE5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="HF5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="HG5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HH5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="HJ5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="HK5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="HL5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="HM5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="HN5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="HO5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="HP5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HQ5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="HS5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="HT5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="HU5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="HV5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="HW5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="HX5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="HY5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="HZ5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="IB5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="IC5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="ID5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="IE5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="IF5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="IG5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="IH5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="II5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="IK5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="IL5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="IM5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="IN5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="IO5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="IP5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="IQ5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="IR5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="IT5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="IU5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="IV5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="IW5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="IX5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="IY5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="IZ5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="JA5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="JC5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="JD5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="JE5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="JF5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="JG5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="JH5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="JI5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="JJ5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="JL5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="JM5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="JN5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="JO5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="JP5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="JQ5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="JR5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="JS5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="JU5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="JV5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="JW5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="JX5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="JY5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="JZ5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="KA5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="KB5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="KD5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="KE5" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="KF5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="KG5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="KH5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="KI5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="KJ5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="KK5" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="JL4:JS4"/>
+    <mergeCell ref="JU4:KB4"/>
+    <mergeCell ref="KD4:KK4"/>
+    <mergeCell ref="HJ4:HQ4"/>
+    <mergeCell ref="HS4:HZ4"/>
+    <mergeCell ref="IB4:II4"/>
+    <mergeCell ref="IK4:IR4"/>
+    <mergeCell ref="IT4:JA4"/>
+    <mergeCell ref="JC4:JJ4"/>
+    <mergeCell ref="HA4:HH4"/>
+    <mergeCell ref="DF4:DM4"/>
+    <mergeCell ref="DO4:DV4"/>
+    <mergeCell ref="DX4:EE4"/>
+    <mergeCell ref="EG4:EN4"/>
+    <mergeCell ref="EP4:EW4"/>
+    <mergeCell ref="EY4:FF4"/>
+    <mergeCell ref="FH4:FO4"/>
+    <mergeCell ref="FQ4:FX4"/>
+    <mergeCell ref="FZ4:GG4"/>
+    <mergeCell ref="GI4:GP4"/>
+    <mergeCell ref="GR4:GY4"/>
+    <mergeCell ref="CW4:DD4"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AC4:AJ4"/>
+    <mergeCell ref="AL4:AS4"/>
+    <mergeCell ref="AU4:BB4"/>
+    <mergeCell ref="BD4:BK4"/>
+    <mergeCell ref="BM4:BT4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CE4:CL4"/>
+    <mergeCell ref="CN4:CU4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -388,24 +1829,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E3B14C-5AF3-4B98-8539-6B6254E43F90}">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B1:AA5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="1" spans="2:27" s="3" customFormat="1" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:27" s="3" customFormat="1" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C2" s="2" t="str">
         <f>CONCATENATE(B6,"년 ",IF(C6="1",1,IF(C6="2","여름",IF(C6="3","가을","겨울"))),"학기")</f>
         <v>년 겨울학기</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27" s="3" customFormat="1" ht="7.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:27" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="K4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="T4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="2:27" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="T4:AA4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -413,14 +1973,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F015E65-22C8-4607-B8E2-91E875B526DA}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:9" ht="7.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" ht="40.049999999999997" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="2:9" ht="7.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="4" spans="2:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B4:I4"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/template.xlsx
+++ b/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\graduation_requirement_computation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DF03E3-03D6-4EBD-8C84-D428541CFFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6581D7CA-0D2A-4BF9-86C8-A4FF76069925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개설과목정보" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -346,6 +346,7 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -636,9 +637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:KK5"/>
+  <dimension ref="B1:KK65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -648,8 +651,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>CONCATENATE(B6,"년 ",IF(C6="1",1,IF(C6="2","여름",IF(C6="3","가을","겨울"))),"학기")</f>
-        <v>년 겨울학기</v>
+        <f>CONCATENATE(B6,"년 ",IF(C6="1",1,IF(C6="2","여름",IF(C6="3","가을",IF(C6="4","겨울","기타")))),"학기")</f>
+        <v>년 기타학기</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>15</v>
@@ -660,336 +663,336 @@
     </row>
     <row r="3" spans="2:297" s="3" customFormat="1" ht="7.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:297" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="K4" s="10" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="K4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="T4" s="10" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="T4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AC4" s="10" t="s">
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AC4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-      <c r="AJ4" s="11"/>
-      <c r="AL4" s="10" t="s">
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="12"/>
+      <c r="AL4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AM4" s="11"/>
-      <c r="AN4" s="11"/>
-      <c r="AO4" s="11"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="11"/>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="11"/>
-      <c r="AU4" s="10" t="s">
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AU4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" s="11"/>
-      <c r="AW4" s="11"/>
-      <c r="AX4" s="11"/>
-      <c r="AY4" s="11"/>
-      <c r="AZ4" s="11"/>
-      <c r="BA4" s="11"/>
-      <c r="BB4" s="11"/>
-      <c r="BD4" s="10" t="s">
+      <c r="AV4" s="12"/>
+      <c r="AW4" s="12"/>
+      <c r="AX4" s="12"/>
+      <c r="AY4" s="12"/>
+      <c r="AZ4" s="12"/>
+      <c r="BA4" s="12"/>
+      <c r="BB4" s="12"/>
+      <c r="BD4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="BE4" s="11"/>
-      <c r="BF4" s="11"/>
-      <c r="BG4" s="11"/>
-      <c r="BH4" s="11"/>
-      <c r="BI4" s="11"/>
-      <c r="BJ4" s="11"/>
-      <c r="BK4" s="11"/>
-      <c r="BM4" s="10" t="s">
+      <c r="BE4" s="12"/>
+      <c r="BF4" s="12"/>
+      <c r="BG4" s="12"/>
+      <c r="BH4" s="12"/>
+      <c r="BI4" s="12"/>
+      <c r="BJ4" s="12"/>
+      <c r="BK4" s="12"/>
+      <c r="BM4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="BN4" s="11"/>
-      <c r="BO4" s="11"/>
-      <c r="BP4" s="11"/>
-      <c r="BQ4" s="11"/>
-      <c r="BR4" s="11"/>
-      <c r="BS4" s="11"/>
-      <c r="BT4" s="11"/>
-      <c r="BV4" s="10" t="s">
+      <c r="BN4" s="12"/>
+      <c r="BO4" s="12"/>
+      <c r="BP4" s="12"/>
+      <c r="BQ4" s="12"/>
+      <c r="BR4" s="12"/>
+      <c r="BS4" s="12"/>
+      <c r="BT4" s="12"/>
+      <c r="BV4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="BW4" s="11"/>
-      <c r="BX4" s="11"/>
-      <c r="BY4" s="11"/>
-      <c r="BZ4" s="11"/>
-      <c r="CA4" s="11"/>
-      <c r="CB4" s="11"/>
-      <c r="CC4" s="11"/>
-      <c r="CE4" s="10" t="s">
+      <c r="BW4" s="12"/>
+      <c r="BX4" s="12"/>
+      <c r="BY4" s="12"/>
+      <c r="BZ4" s="12"/>
+      <c r="CA4" s="12"/>
+      <c r="CB4" s="12"/>
+      <c r="CC4" s="12"/>
+      <c r="CE4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="CF4" s="11"/>
-      <c r="CG4" s="11"/>
-      <c r="CH4" s="11"/>
-      <c r="CI4" s="11"/>
-      <c r="CJ4" s="11"/>
-      <c r="CK4" s="11"/>
-      <c r="CL4" s="11"/>
-      <c r="CN4" s="10" t="s">
+      <c r="CF4" s="12"/>
+      <c r="CG4" s="12"/>
+      <c r="CH4" s="12"/>
+      <c r="CI4" s="12"/>
+      <c r="CJ4" s="12"/>
+      <c r="CK4" s="12"/>
+      <c r="CL4" s="12"/>
+      <c r="CN4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="CO4" s="11"/>
-      <c r="CP4" s="11"/>
-      <c r="CQ4" s="11"/>
-      <c r="CR4" s="11"/>
-      <c r="CS4" s="11"/>
-      <c r="CT4" s="11"/>
-      <c r="CU4" s="11"/>
-      <c r="CW4" s="10" t="s">
+      <c r="CO4" s="12"/>
+      <c r="CP4" s="12"/>
+      <c r="CQ4" s="12"/>
+      <c r="CR4" s="12"/>
+      <c r="CS4" s="12"/>
+      <c r="CT4" s="12"/>
+      <c r="CU4" s="12"/>
+      <c r="CW4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="CX4" s="11"/>
-      <c r="CY4" s="11"/>
-      <c r="CZ4" s="11"/>
-      <c r="DA4" s="11"/>
-      <c r="DB4" s="11"/>
-      <c r="DC4" s="11"/>
-      <c r="DD4" s="11"/>
-      <c r="DF4" s="10" t="s">
+      <c r="CX4" s="12"/>
+      <c r="CY4" s="12"/>
+      <c r="CZ4" s="12"/>
+      <c r="DA4" s="12"/>
+      <c r="DB4" s="12"/>
+      <c r="DC4" s="12"/>
+      <c r="DD4" s="12"/>
+      <c r="DF4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="DG4" s="11"/>
-      <c r="DH4" s="11"/>
-      <c r="DI4" s="11"/>
-      <c r="DJ4" s="11"/>
-      <c r="DK4" s="11"/>
-      <c r="DL4" s="11"/>
-      <c r="DM4" s="11"/>
-      <c r="DO4" s="10" t="s">
+      <c r="DG4" s="12"/>
+      <c r="DH4" s="12"/>
+      <c r="DI4" s="12"/>
+      <c r="DJ4" s="12"/>
+      <c r="DK4" s="12"/>
+      <c r="DL4" s="12"/>
+      <c r="DM4" s="12"/>
+      <c r="DO4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="DP4" s="11"/>
-      <c r="DQ4" s="11"/>
-      <c r="DR4" s="11"/>
-      <c r="DS4" s="11"/>
-      <c r="DT4" s="11"/>
-      <c r="DU4" s="11"/>
-      <c r="DV4" s="11"/>
-      <c r="DX4" s="10" t="s">
+      <c r="DP4" s="12"/>
+      <c r="DQ4" s="12"/>
+      <c r="DR4" s="12"/>
+      <c r="DS4" s="12"/>
+      <c r="DT4" s="12"/>
+      <c r="DU4" s="12"/>
+      <c r="DV4" s="12"/>
+      <c r="DX4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="DY4" s="11"/>
-      <c r="DZ4" s="11"/>
-      <c r="EA4" s="11"/>
-      <c r="EB4" s="11"/>
-      <c r="EC4" s="11"/>
-      <c r="ED4" s="11"/>
-      <c r="EE4" s="11"/>
-      <c r="EG4" s="10" t="s">
+      <c r="DY4" s="12"/>
+      <c r="DZ4" s="12"/>
+      <c r="EA4" s="12"/>
+      <c r="EB4" s="12"/>
+      <c r="EC4" s="12"/>
+      <c r="ED4" s="12"/>
+      <c r="EE4" s="12"/>
+      <c r="EG4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="EH4" s="11"/>
-      <c r="EI4" s="11"/>
-      <c r="EJ4" s="11"/>
-      <c r="EK4" s="11"/>
-      <c r="EL4" s="11"/>
-      <c r="EM4" s="11"/>
-      <c r="EN4" s="11"/>
-      <c r="EP4" s="10" t="s">
+      <c r="EH4" s="12"/>
+      <c r="EI4" s="12"/>
+      <c r="EJ4" s="12"/>
+      <c r="EK4" s="12"/>
+      <c r="EL4" s="12"/>
+      <c r="EM4" s="12"/>
+      <c r="EN4" s="12"/>
+      <c r="EP4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="EQ4" s="11"/>
-      <c r="ER4" s="11"/>
-      <c r="ES4" s="11"/>
-      <c r="ET4" s="11"/>
-      <c r="EU4" s="11"/>
-      <c r="EV4" s="11"/>
-      <c r="EW4" s="11"/>
-      <c r="EY4" s="10" t="s">
+      <c r="EQ4" s="12"/>
+      <c r="ER4" s="12"/>
+      <c r="ES4" s="12"/>
+      <c r="ET4" s="12"/>
+      <c r="EU4" s="12"/>
+      <c r="EV4" s="12"/>
+      <c r="EW4" s="12"/>
+      <c r="EY4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="EZ4" s="11"/>
-      <c r="FA4" s="11"/>
-      <c r="FB4" s="11"/>
-      <c r="FC4" s="11"/>
-      <c r="FD4" s="11"/>
-      <c r="FE4" s="11"/>
-      <c r="FF4" s="11"/>
-      <c r="FH4" s="10" t="s">
+      <c r="EZ4" s="12"/>
+      <c r="FA4" s="12"/>
+      <c r="FB4" s="12"/>
+      <c r="FC4" s="12"/>
+      <c r="FD4" s="12"/>
+      <c r="FE4" s="12"/>
+      <c r="FF4" s="12"/>
+      <c r="FH4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="FI4" s="11"/>
-      <c r="FJ4" s="11"/>
-      <c r="FK4" s="11"/>
-      <c r="FL4" s="11"/>
-      <c r="FM4" s="11"/>
-      <c r="FN4" s="11"/>
-      <c r="FO4" s="11"/>
-      <c r="FQ4" s="10" t="s">
+      <c r="FI4" s="12"/>
+      <c r="FJ4" s="12"/>
+      <c r="FK4" s="12"/>
+      <c r="FL4" s="12"/>
+      <c r="FM4" s="12"/>
+      <c r="FN4" s="12"/>
+      <c r="FO4" s="12"/>
+      <c r="FQ4" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="FR4" s="11"/>
-      <c r="FS4" s="11"/>
-      <c r="FT4" s="11"/>
-      <c r="FU4" s="11"/>
-      <c r="FV4" s="11"/>
-      <c r="FW4" s="11"/>
-      <c r="FX4" s="11"/>
-      <c r="FZ4" s="10" t="s">
+      <c r="FR4" s="12"/>
+      <c r="FS4" s="12"/>
+      <c r="FT4" s="12"/>
+      <c r="FU4" s="12"/>
+      <c r="FV4" s="12"/>
+      <c r="FW4" s="12"/>
+      <c r="FX4" s="12"/>
+      <c r="FZ4" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="GA4" s="11"/>
-      <c r="GB4" s="11"/>
-      <c r="GC4" s="11"/>
-      <c r="GD4" s="11"/>
-      <c r="GE4" s="11"/>
-      <c r="GF4" s="11"/>
-      <c r="GG4" s="11"/>
-      <c r="GI4" s="10" t="s">
+      <c r="GA4" s="12"/>
+      <c r="GB4" s="12"/>
+      <c r="GC4" s="12"/>
+      <c r="GD4" s="12"/>
+      <c r="GE4" s="12"/>
+      <c r="GF4" s="12"/>
+      <c r="GG4" s="12"/>
+      <c r="GI4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="GJ4" s="11"/>
-      <c r="GK4" s="11"/>
-      <c r="GL4" s="11"/>
-      <c r="GM4" s="11"/>
-      <c r="GN4" s="11"/>
-      <c r="GO4" s="11"/>
-      <c r="GP4" s="11"/>
-      <c r="GR4" s="10" t="s">
+      <c r="GJ4" s="12"/>
+      <c r="GK4" s="12"/>
+      <c r="GL4" s="12"/>
+      <c r="GM4" s="12"/>
+      <c r="GN4" s="12"/>
+      <c r="GO4" s="12"/>
+      <c r="GP4" s="12"/>
+      <c r="GR4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="GS4" s="11"/>
-      <c r="GT4" s="11"/>
-      <c r="GU4" s="11"/>
-      <c r="GV4" s="11"/>
-      <c r="GW4" s="11"/>
-      <c r="GX4" s="11"/>
-      <c r="GY4" s="11"/>
-      <c r="HA4" s="10" t="s">
+      <c r="GS4" s="12"/>
+      <c r="GT4" s="12"/>
+      <c r="GU4" s="12"/>
+      <c r="GV4" s="12"/>
+      <c r="GW4" s="12"/>
+      <c r="GX4" s="12"/>
+      <c r="GY4" s="12"/>
+      <c r="HA4" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="HB4" s="11"/>
-      <c r="HC4" s="11"/>
-      <c r="HD4" s="11"/>
-      <c r="HE4" s="11"/>
-      <c r="HF4" s="11"/>
-      <c r="HG4" s="11"/>
-      <c r="HH4" s="11"/>
-      <c r="HJ4" s="10" t="s">
+      <c r="HB4" s="12"/>
+      <c r="HC4" s="12"/>
+      <c r="HD4" s="12"/>
+      <c r="HE4" s="12"/>
+      <c r="HF4" s="12"/>
+      <c r="HG4" s="12"/>
+      <c r="HH4" s="12"/>
+      <c r="HJ4" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="HK4" s="11"/>
-      <c r="HL4" s="11"/>
-      <c r="HM4" s="11"/>
-      <c r="HN4" s="11"/>
-      <c r="HO4" s="11"/>
-      <c r="HP4" s="11"/>
-      <c r="HQ4" s="11"/>
-      <c r="HS4" s="10" t="s">
+      <c r="HK4" s="12"/>
+      <c r="HL4" s="12"/>
+      <c r="HM4" s="12"/>
+      <c r="HN4" s="12"/>
+      <c r="HO4" s="12"/>
+      <c r="HP4" s="12"/>
+      <c r="HQ4" s="12"/>
+      <c r="HS4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="HT4" s="11"/>
-      <c r="HU4" s="11"/>
-      <c r="HV4" s="11"/>
-      <c r="HW4" s="11"/>
-      <c r="HX4" s="11"/>
-      <c r="HY4" s="11"/>
-      <c r="HZ4" s="11"/>
-      <c r="IB4" s="10" t="s">
+      <c r="HT4" s="12"/>
+      <c r="HU4" s="12"/>
+      <c r="HV4" s="12"/>
+      <c r="HW4" s="12"/>
+      <c r="HX4" s="12"/>
+      <c r="HY4" s="12"/>
+      <c r="HZ4" s="12"/>
+      <c r="IB4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="IC4" s="11"/>
-      <c r="ID4" s="11"/>
-      <c r="IE4" s="11"/>
-      <c r="IF4" s="11"/>
-      <c r="IG4" s="11"/>
-      <c r="IH4" s="11"/>
-      <c r="II4" s="11"/>
-      <c r="IK4" s="10" t="s">
+      <c r="IC4" s="12"/>
+      <c r="ID4" s="12"/>
+      <c r="IE4" s="12"/>
+      <c r="IF4" s="12"/>
+      <c r="IG4" s="12"/>
+      <c r="IH4" s="12"/>
+      <c r="II4" s="12"/>
+      <c r="IK4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="IL4" s="11"/>
-      <c r="IM4" s="11"/>
-      <c r="IN4" s="11"/>
-      <c r="IO4" s="11"/>
-      <c r="IP4" s="11"/>
-      <c r="IQ4" s="11"/>
-      <c r="IR4" s="11"/>
-      <c r="IT4" s="10" t="s">
+      <c r="IL4" s="12"/>
+      <c r="IM4" s="12"/>
+      <c r="IN4" s="12"/>
+      <c r="IO4" s="12"/>
+      <c r="IP4" s="12"/>
+      <c r="IQ4" s="12"/>
+      <c r="IR4" s="12"/>
+      <c r="IT4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="IU4" s="11"/>
-      <c r="IV4" s="11"/>
-      <c r="IW4" s="11"/>
-      <c r="IX4" s="11"/>
-      <c r="IY4" s="11"/>
-      <c r="IZ4" s="11"/>
-      <c r="JA4" s="11"/>
-      <c r="JC4" s="10" t="s">
+      <c r="IU4" s="12"/>
+      <c r="IV4" s="12"/>
+      <c r="IW4" s="12"/>
+      <c r="IX4" s="12"/>
+      <c r="IY4" s="12"/>
+      <c r="IZ4" s="12"/>
+      <c r="JA4" s="12"/>
+      <c r="JC4" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="JD4" s="11"/>
-      <c r="JE4" s="11"/>
-      <c r="JF4" s="11"/>
-      <c r="JG4" s="11"/>
-      <c r="JH4" s="11"/>
-      <c r="JI4" s="11"/>
-      <c r="JJ4" s="11"/>
-      <c r="JL4" s="10" t="s">
+      <c r="JD4" s="12"/>
+      <c r="JE4" s="12"/>
+      <c r="JF4" s="12"/>
+      <c r="JG4" s="12"/>
+      <c r="JH4" s="12"/>
+      <c r="JI4" s="12"/>
+      <c r="JJ4" s="12"/>
+      <c r="JL4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="JM4" s="11"/>
-      <c r="JN4" s="11"/>
-      <c r="JO4" s="11"/>
-      <c r="JP4" s="11"/>
-      <c r="JQ4" s="11"/>
-      <c r="JR4" s="11"/>
-      <c r="JS4" s="11"/>
-      <c r="JU4" s="10" t="s">
+      <c r="JM4" s="12"/>
+      <c r="JN4" s="12"/>
+      <c r="JO4" s="12"/>
+      <c r="JP4" s="12"/>
+      <c r="JQ4" s="12"/>
+      <c r="JR4" s="12"/>
+      <c r="JS4" s="12"/>
+      <c r="JU4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="JV4" s="11"/>
-      <c r="JW4" s="11"/>
-      <c r="JX4" s="11"/>
-      <c r="JY4" s="11"/>
-      <c r="JZ4" s="11"/>
-      <c r="KA4" s="11"/>
-      <c r="KB4" s="11"/>
-      <c r="KD4" s="10" t="s">
+      <c r="JV4" s="12"/>
+      <c r="JW4" s="12"/>
+      <c r="JX4" s="12"/>
+      <c r="JY4" s="12"/>
+      <c r="JZ4" s="12"/>
+      <c r="KA4" s="12"/>
+      <c r="KB4" s="12"/>
+      <c r="KD4" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="KE4" s="11"/>
-      <c r="KF4" s="11"/>
-      <c r="KG4" s="11"/>
-      <c r="KH4" s="11"/>
-      <c r="KI4" s="11"/>
-      <c r="KJ4" s="11"/>
-      <c r="KK4" s="11"/>
+      <c r="KE4" s="12"/>
+      <c r="KF4" s="12"/>
+      <c r="KG4" s="12"/>
+      <c r="KH4" s="12"/>
+      <c r="KI4" s="12"/>
+      <c r="KJ4" s="12"/>
+      <c r="KK4" s="12"/>
     </row>
     <row r="5" spans="2:297" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="6" t="s">
@@ -1785,17 +1788,80 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="7" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="11" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="12" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="13" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="15" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:297" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="17" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="19" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="20" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="22" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="25" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="27" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="29" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="30" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="35" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="37" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="39" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="41" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="42" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="43" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="44" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="45" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="46" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="47" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="48" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="49" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="50" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="51" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="52" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="53" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="54" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="55" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="56" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="57" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="58" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="59" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="60" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="61" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="62" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="63" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="64" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="65" s="10" customFormat="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="JL4:JS4"/>
-    <mergeCell ref="JU4:KB4"/>
-    <mergeCell ref="KD4:KK4"/>
-    <mergeCell ref="HJ4:HQ4"/>
-    <mergeCell ref="HS4:HZ4"/>
-    <mergeCell ref="IB4:II4"/>
-    <mergeCell ref="IK4:IR4"/>
-    <mergeCell ref="IT4:JA4"/>
-    <mergeCell ref="JC4:JJ4"/>
+    <mergeCell ref="CW4:DD4"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="K4:R4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="AC4:AJ4"/>
+    <mergeCell ref="AL4:AS4"/>
+    <mergeCell ref="AU4:BB4"/>
+    <mergeCell ref="BD4:BK4"/>
+    <mergeCell ref="BM4:BT4"/>
+    <mergeCell ref="BV4:CC4"/>
+    <mergeCell ref="CE4:CL4"/>
+    <mergeCell ref="CN4:CU4"/>
     <mergeCell ref="HA4:HH4"/>
     <mergeCell ref="DF4:DM4"/>
     <mergeCell ref="DO4:DV4"/>
@@ -1808,18 +1874,15 @@
     <mergeCell ref="FZ4:GG4"/>
     <mergeCell ref="GI4:GP4"/>
     <mergeCell ref="GR4:GY4"/>
-    <mergeCell ref="CW4:DD4"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="K4:R4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="AC4:AJ4"/>
-    <mergeCell ref="AL4:AS4"/>
-    <mergeCell ref="AU4:BB4"/>
-    <mergeCell ref="BD4:BK4"/>
-    <mergeCell ref="BM4:BT4"/>
-    <mergeCell ref="BV4:CC4"/>
-    <mergeCell ref="CE4:CL4"/>
-    <mergeCell ref="CN4:CU4"/>
+    <mergeCell ref="JL4:JS4"/>
+    <mergeCell ref="JU4:KB4"/>
+    <mergeCell ref="KD4:KK4"/>
+    <mergeCell ref="HJ4:HQ4"/>
+    <mergeCell ref="HS4:HZ4"/>
+    <mergeCell ref="IB4:II4"/>
+    <mergeCell ref="IK4:IR4"/>
+    <mergeCell ref="IT4:JA4"/>
+    <mergeCell ref="JC4:JJ4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1831,8 +1894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E3B14C-5AF3-4B98-8539-6B6254E43F90}">
   <dimension ref="B1:AA5"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1843,8 +1906,8 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>CONCATENATE(B6,"년 ",IF(C6="1",1,IF(C6="2","여름",IF(C6="3","가을","겨울"))),"학기")</f>
-        <v>년 겨울학기</v>
+        <f>CONCATENATE(B6,"년 ",IF(C6="1",1,IF(C6="2","여름",IF(C6="3","가을",IF(C6="4","겨울","기타")))),"학기")</f>
+        <v>년 기타학기</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>15</v>
@@ -1855,36 +1918,36 @@
     </row>
     <row r="3" spans="2:27" s="3" customFormat="1" ht="7.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:27" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="K4" s="12" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="K4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="T4" s="12" t="s">
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="T4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
     </row>
     <row r="5" spans="2:27" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="4" t="s">
@@ -1990,16 +2053,16 @@
     </row>
     <row r="3" spans="2:9" ht="7.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.4"/>
     <row r="4" spans="2:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="2:9" s="3" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\graduation_requirement_computation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D9488D-A3AB-48B6-AF7A-51F39CD8CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BEBE28-7BA3-4FF0-A3FD-7391BC613FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="공통졸업요건" sheetId="4" r:id="rId1"/>
-    <sheet name="전공별졸업요건" sheetId="5" r:id="rId2"/>
-    <sheet name="기초및전공과목" sheetId="6" r:id="rId3"/>
-    <sheet name="교양과목-예체능" sheetId="2" r:id="rId4"/>
-    <sheet name="전체개설과목정보" sheetId="1" r:id="rId5"/>
-    <sheet name="수강과목요약" sheetId="3" r:id="rId6"/>
+    <sheet name="종합데이터" sheetId="8" r:id="rId1"/>
+    <sheet name="공통졸업요건" sheetId="4" r:id="rId2"/>
+    <sheet name="전공별졸업요건" sheetId="5" r:id="rId3"/>
+    <sheet name="기초및전공과목" sheetId="6" r:id="rId4"/>
+    <sheet name="교양-예체능-연구" sheetId="2" r:id="rId5"/>
+    <sheet name="전체개설과목정보" sheetId="1" r:id="rId6"/>
+    <sheet name="수강과목요약" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="339">
   <si>
     <t>최초개설년도</t>
   </si>
@@ -1075,11 +1076,628 @@
     <t>예능 과목을 2회 이상 이수하였는가?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1. 전기전자컴퓨터학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기전자컴퓨터학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전전컴 필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자공학 실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터 시스템 이론 및 실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전전컴 전공과목 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전전컴 전공과목 이수 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 36학점까지만 졸업 학점으로 인정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 42학점까지만 졸업 학점으로 인정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공필수 과목 포함 36학점 이상을 이수했는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. 신소재공학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소재공학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 1과 2 두 조건을 만족하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 과목을 모두 이수했는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고분자과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자재료실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유기재료실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소재 필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소재 전공과목 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소재 전공과목 이수 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열역학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유기재료화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개 중 하나 이상 이수했는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 기계공학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계공학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계 필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고체역학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기구동역학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공학설계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열유체역학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유체역학 또는 열역학 이수 포함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계 전공과목 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계 전공과목 이수 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16~17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유체역학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동역학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계공학실험 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계공학실험 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 지구환경공학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구환경공학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지환공 필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경공학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해양학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경분석실험 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구환경 열역학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구환경이동현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지환공 전공과목 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지환공 전공과목 이수 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15~17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구시스템과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경분석실험 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 생명과학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명과학부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명과학 필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세포생물학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세포·발생생물학 실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생화학·분자생물학 실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생화학 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유기화학 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분자생물학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생화학 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생화학 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명과학 전공과목 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명과학 전공과목 이수 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 물리·광과학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자기학 및 연습 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양자물리 및 연습 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양자물리 및 연습 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>열역학 및 통계물리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리실험 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리물리 및 연습</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"수리물리 I" 과목으로 대체 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리·광과학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학 필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학 전공과목 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리학 전공과목 이수 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고전역학 및 연습 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자기학 및 연습 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자기학 및 연습 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수리물리 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 화학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학과 필수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분석화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리화학 A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학합성실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급화학실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리화학 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유기화학 II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"물리화학 A" 과목으로 대체 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학 전공과목 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학 전공과목 이수 학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유기화학 I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리화학 B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학합성실험</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기화학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"지구시스템과학" 과목 이수 시 이수 처리
+(두 과목 모두 기이수 시 해당 과목 수강 불허)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공필수 과목 포함 30학점 이상을 이수했는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. 연구 과목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학사논문연구 과목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학사논문연구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하위 조건 2개 모두를 만족하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학사논문연구 I 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학사논문연구 II 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>9. 전체 평점 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평점 평균 조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건 1을 만족하는가?</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>평점 평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 평점이 평균 2.0을 넘는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통졸업요건</t>
+  </si>
+  <si>
+    <t>전공졸업요건</t>
+  </si>
+  <si>
+    <t>전공이수학점</t>
+  </si>
+  <si>
+    <t>학번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전공학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교양학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사활동 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창의함양 이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이수학점 단순합</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 이수학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. 인문사회 분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. 공통필수 이수 과목
+(콜로퀴움, 과기경)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1. 기초과학 분야
+- 수학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-2. 기초과학 분야
+- 과학</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-1. 언어의 기초 분야
+- 영어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-2. 언어의 기초 분야
+- 글쓰기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 전체 평점 평균
+(2.0 이상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전기전자컴퓨터전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신소재공학전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계공학전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지구환경공학전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생명과학전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학전공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>창의함양 중복이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉사활동 중복이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학점이수현황
+- 학번(C2) 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>졸업요건 세부 내용은 "공통졸업요건" 또는 "전공별졸업요건" 시트를 참고하시길 바랍니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반/기타학점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0&quot;학번&quot;"/>
+  </numFmts>
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -1158,7 +1776,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="23">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1291,8 +1909,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1660,11 +2308,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="8"/>
+      </left>
+      <right style="thin">
+        <color theme="8"/>
+      </right>
+      <top style="thin">
+        <color theme="8"/>
+      </top>
+      <bottom style="thin">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="1" diagonalDown="1">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal style="thin">
+        <color theme="8" tint="0.39985351115451523"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1915,6 +2598,85 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="25" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1957,10 +2719,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1969,27 +2731,332 @@
     <xf numFmtId="49" fontId="4" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="19" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="24" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="27" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="49">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0&quot;학번&quot;"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0&quot;학번&quot;"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0&quot;학번&quot;"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="0&quot;학번&quot;"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="9"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="9"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color theme="9"/>
+        </left>
+        <right style="thin">
+          <color theme="9"/>
+        </right>
+        <top style="thin">
+          <color theme="9"/>
+        </top>
+        <bottom style="thin">
+          <color theme="9"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="9"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="9"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="표 스타일 1" pivot="0" count="3" xr9:uid="{ACE9BA69-1A88-4F19-AE43-949F765D996C}">
+      <tableStyleElement type="wholeTable" dxfId="46"/>
+      <tableStyleElement type="firstColumn" dxfId="45"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="44"/>
+    </tableStyle>
+    <tableStyle name="피벗 테이블 스타일 1" table="0" count="2" xr9:uid="{B967C283-0F15-433D-910D-560181AF7A1D}">
+      <tableStyleElement type="wholeTable" dxfId="48"/>
+      <tableStyleElement type="firstColumn" dxfId="47"/>
+    </tableStyle>
+  </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3B3838"/>
+      <color rgb="FF000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1999,6 +3066,126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D177F641-119F-4E5D-8618-B0F36F04C4A9}" name="표8" displayName="표8" ref="B4:M11" totalsRowShown="0" headerRowDxfId="42" dataDxfId="43">
+  <autoFilter ref="B4:M11" xr:uid="{D177F641-119F-4E5D-8618-B0F36F04C4A9}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{3E000FE0-06DA-47DB-9462-01686BF81D7D}" name="공통졸업요건" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{C1398AA6-1813-4419-A1BC-E42376CF6A9A}" name="1-1. 기초과학 분야_x000a_- 수학" dataDxfId="40">
+      <calculatedColumnFormula>공통졸업요건!$E$5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{16402FF2-45B9-4F20-9D38-0CF321CCECE2}" name="1-2. 기초과학 분야_x000a_- 과학" dataDxfId="39">
+      <calculatedColumnFormula>공통졸업요건!$E$18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{4A0B3545-C6BE-491B-834A-7F75FDF00177}" name="2-1. 언어의 기초 분야_x000a_- 영어" dataDxfId="38">
+      <calculatedColumnFormula>공통졸업요건!$E$34</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{33CBC962-F37C-47D1-B39B-296110C78297}" name="2-2. 언어의 기초 분야_x000a_- 글쓰기" dataDxfId="37">
+      <calculatedColumnFormula>공통졸업요건!$E$44</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D4988217-9E9A-4CAE-B8BD-4EBA071A391E}" name="3. 인문사회 분야" dataDxfId="36">
+      <calculatedColumnFormula>공통졸업요건!$E$57</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{FEC002AC-A59B-4A35-974C-00FC77C0B2DD}" name="4. 소프트웨어" dataDxfId="35">
+      <calculatedColumnFormula>공통졸업요건!$E$69</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{50F40CE2-EF17-480A-9960-90B85403EB34}" name="5. 1학년 이수 과목" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{718B788A-5670-4E96-975C-BCBC39B2FE79}" name="6. 예체능 과목" dataDxfId="33">
+      <calculatedColumnFormula>공통졸업요건!$E$87</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{C6ACEBA5-5E0F-44E5-AAD4-E280478D1854}" name="7. 공통필수 이수 과목_x000a_(콜로퀴움, 과기경)" dataDxfId="32">
+      <calculatedColumnFormula>공통졸업요건!$J$96</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{BBF92757-923D-4A21-B9E8-411E1D809031}" name="8. 연구 과목" dataDxfId="31">
+      <calculatedColumnFormula>공통졸업요건!$E$105</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{867E4052-0EC2-4250-8C5F-CAF81EEDB45A}" name="9. 전체 평점 평균_x000a_(2.0 이상)" dataDxfId="30">
+      <calculatedColumnFormula>공통졸업요건!$E$113</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{0F29B9D3-DF33-4A29-9615-005421DED1C2}" name="표10" displayName="표10" ref="B14:I21" totalsRowShown="0" headerRowDxfId="28" dataDxfId="29">
+  <autoFilter ref="B14:I21" xr:uid="{0F29B9D3-DF33-4A29-9615-005421DED1C2}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C695C0D8-0A73-472C-92A6-C868651E2EDF}" name="전공졸업요건" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{00484B2A-14BC-41EC-A7BC-C01DCC1B531E}" name="전기전자컴퓨터전공" dataDxfId="17">
+      <calculatedColumnFormula>전공별졸업요건!$J$5</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{10BB43A4-B12B-479D-B120-517CF41C7BD9}" name="신소재공학전공" dataDxfId="15">
+      <calculatedColumnFormula>전공별졸업요건!$J$15</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{28074B42-7152-41BC-9264-B6EAFC38D221}" name="기계공학전공" dataDxfId="14">
+      <calculatedColumnFormula>전공별졸업요건!$O$29</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{16243DDD-D69D-4D6E-91FC-064AC3CB848C}" name="지구환경공학전공" dataDxfId="13">
+      <calculatedColumnFormula>전공별졸업요건!$J$43</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{73A87B5F-F8AC-42BD-9781-DBEA0B0477A2}" name="생명과학전공" dataDxfId="12">
+      <calculatedColumnFormula>전공별졸업요건!$J$57</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{C11AEFB5-1534-4535-8EF4-AEE5392044C4}" name="물리전공" dataDxfId="11">
+      <calculatedColumnFormula>전공별졸업요건!$J$72</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{8A3BA68C-9228-46C0-A61C-34C615FABFD7}" name="화학전공" dataDxfId="10">
+      <calculatedColumnFormula>전공별졸업요건!$J$88</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{F3309007-0B5C-45F4-AFA4-DAB8189191EA}" name="표11" displayName="표11" ref="B24:I31" totalsRowShown="0" headerRowDxfId="18" dataDxfId="19">
+  <autoFilter ref="B24:I31" xr:uid="{F3309007-0B5C-45F4-AFA4-DAB8189191EA}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{136137DF-EC75-41E5-8689-E0F6566B403B}" name="전공이수학점" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{DA3F6E4F-D6C4-437F-A248-F5E875652F8F}" name="전기전자컴퓨터전공" dataDxfId="26">
+      <calculatedColumnFormula>전공별졸업요건!$J$10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{38944F1E-ED20-410D-9B9B-FBBE50EF9A6E}" name="신소재공학전공" dataDxfId="25">
+      <calculatedColumnFormula>전공별졸업요건!$J$24</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{ADE536A0-DCD8-48A9-B95A-D867BAD63B36}" name="기계공학전공" dataDxfId="24">
+      <calculatedColumnFormula>전공별졸업요건!$O$38</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{CF626C8D-292A-4906-B0F8-ADACA6D80552}" name="지구환경공학전공" dataDxfId="23">
+      <calculatedColumnFormula>전공별졸업요건!$J$51</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{FA40B1FF-485C-4545-8EDD-FC90DD93865F}" name="생명과학전공" dataDxfId="22">
+      <calculatedColumnFormula>전공별졸업요건!$J$67</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{8D6C685B-7B30-45CC-B31A-B085BF889301}" name="물리전공" dataDxfId="21">
+      <calculatedColumnFormula>전공별졸업요건!$J$83</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B0CEAA05-54E1-4784-8C72-3AAC0652942F}" name="화학전공" dataDxfId="20">
+      <calculatedColumnFormula>전공별졸업요건!$J$98</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{AAC890CC-99C8-4FE0-BAE4-AB674D9EFD59}" name="표12" displayName="표12" ref="B34:I43" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="B34:I43" xr:uid="{AAC890CC-99C8-4FE0-BAE4-AB674D9EFD59}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C855F198-20E5-4E97-B8BD-897E1CE69233}" name="학점이수현황_x000a_- 학번(C2) 참고" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C5963932-1D19-4A56-8F80-1DB704F93119}" name="전기전자컴퓨터전공" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{65969E11-B57E-42AA-BFB3-0197A3DDF4AB}" name="신소재공학전공" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{2C826FBD-2C22-4778-8FD6-E79B019638C0}" name="기계공학전공" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{B0A9E799-B286-4584-8B53-E249CC18C8DE}" name="지구환경공학전공" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{DA931662-5B60-45E2-9CA8-03D1A50CC1B8}" name="생명과학전공" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{1ED42D7D-3A69-4D6E-A06F-32EBC666B26E}" name="물리전공" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{474E753E-0887-4FA3-8C04-19D5E74C4B33}" name="화학전공" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2263,11 +3450,1333 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B36437-592C-46A9-A5A6-A15F29E561CB}">
+  <dimension ref="B1:V43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.69921875" defaultRowHeight="19.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="1" style="106" customWidth="1"/>
+    <col min="2" max="2" width="15.69921875" style="148" customWidth="1"/>
+    <col min="3" max="3" width="18.796875" style="106" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" style="106" customWidth="1"/>
+    <col min="5" max="6" width="20.69921875" style="106" customWidth="1"/>
+    <col min="7" max="7" width="16" style="106" customWidth="1"/>
+    <col min="8" max="8" width="13.69921875" style="106" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" style="106" customWidth="1"/>
+    <col min="10" max="10" width="14.19921875" style="106" customWidth="1"/>
+    <col min="11" max="11" width="20.69921875" style="106" customWidth="1"/>
+    <col min="12" max="12" width="12.69921875" style="106" customWidth="1"/>
+    <col min="13" max="13" width="17.69921875" style="106" customWidth="1"/>
+    <col min="14" max="16384" width="25.69921875" style="106"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="7.8" customHeight="1"/>
+    <row r="2" spans="2:13" s="145" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="B2" s="149" t="s">
+        <v>313</v>
+      </c>
+      <c r="C2" s="146">
+        <f>IF(INT(수강과목요약!$C$2/10000)-2000&lt;15,15,INT(수강과목요약!$C$2/10000)-2000)</f>
+        <v>15</v>
+      </c>
+      <c r="K2" s="155" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="19.95" customHeight="1">
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
+    </row>
+    <row r="4" spans="2:13" s="145" customFormat="1" ht="40.049999999999997" customHeight="1">
+      <c r="B4" s="148" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="147" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="147" t="s">
+        <v>323</v>
+      </c>
+      <c r="E4" s="147" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="147" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>320</v>
+      </c>
+      <c r="H4" s="112" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" s="112" t="s">
+        <v>145</v>
+      </c>
+      <c r="J4" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="K4" s="147" t="s">
+        <v>321</v>
+      </c>
+      <c r="L4" s="112" t="s">
+        <v>296</v>
+      </c>
+      <c r="M4" s="147" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="19.95" customHeight="1">
+      <c r="B5" s="148">
+        <v>15</v>
+      </c>
+      <c r="C5" s="152" t="str">
+        <f>공통졸업요건!$E$5</f>
+        <v>X</v>
+      </c>
+      <c r="D5" s="152" t="str">
+        <f>공통졸업요건!$E$18</f>
+        <v>X</v>
+      </c>
+      <c r="E5" s="152" t="str">
+        <f>공통졸업요건!$E$34</f>
+        <v>X</v>
+      </c>
+      <c r="F5" s="152" t="str">
+        <f>공통졸업요건!$E$44</f>
+        <v>X</v>
+      </c>
+      <c r="G5" s="152" t="str">
+        <f>공통졸업요건!$E$57</f>
+        <v>X</v>
+      </c>
+      <c r="H5" s="153"/>
+      <c r="I5" s="152" t="str">
+        <f>공통졸업요건!$E$78</f>
+        <v>X</v>
+      </c>
+      <c r="J5" s="152" t="str">
+        <f>공통졸업요건!$E$87</f>
+        <v>X</v>
+      </c>
+      <c r="K5" s="152" t="str">
+        <f>공통졸업요건!$E$96</f>
+        <v>X</v>
+      </c>
+      <c r="L5" s="152" t="str">
+        <f>공통졸업요건!$E$105</f>
+        <v>X</v>
+      </c>
+      <c r="M5" s="152" t="str">
+        <f>공통졸업요건!$E$113</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="19.95" customHeight="1">
+      <c r="B6" s="148">
+        <v>16</v>
+      </c>
+      <c r="C6" s="152" t="str">
+        <f>공통졸업요건!$E$5</f>
+        <v>X</v>
+      </c>
+      <c r="D6" s="152" t="str">
+        <f>공통졸업요건!$E$18</f>
+        <v>X</v>
+      </c>
+      <c r="E6" s="152" t="str">
+        <f>공통졸업요건!$E$34</f>
+        <v>X</v>
+      </c>
+      <c r="F6" s="152" t="str">
+        <f>공통졸업요건!$E$44</f>
+        <v>X</v>
+      </c>
+      <c r="G6" s="152" t="str">
+        <f>공통졸업요건!$E$57</f>
+        <v>X</v>
+      </c>
+      <c r="H6" s="153"/>
+      <c r="I6" s="152" t="str">
+        <f>공통졸업요건!$E$78</f>
+        <v>X</v>
+      </c>
+      <c r="J6" s="152" t="str">
+        <f>공통졸업요건!$E$87</f>
+        <v>X</v>
+      </c>
+      <c r="K6" s="152" t="str">
+        <f>공통졸업요건!$E$96</f>
+        <v>X</v>
+      </c>
+      <c r="L6" s="152" t="str">
+        <f>공통졸업요건!$E$105</f>
+        <v>X</v>
+      </c>
+      <c r="M6" s="152" t="str">
+        <f>공통졸업요건!$E$113</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="19.95" customHeight="1">
+      <c r="B7" s="148">
+        <v>17</v>
+      </c>
+      <c r="C7" s="152" t="str">
+        <f>공통졸업요건!$E$5</f>
+        <v>X</v>
+      </c>
+      <c r="D7" s="152" t="str">
+        <f>공통졸업요건!$E$18</f>
+        <v>X</v>
+      </c>
+      <c r="E7" s="152" t="str">
+        <f>공통졸업요건!$E$34</f>
+        <v>X</v>
+      </c>
+      <c r="F7" s="152" t="str">
+        <f>공통졸업요건!$E$44</f>
+        <v>X</v>
+      </c>
+      <c r="G7" s="152" t="str">
+        <f>공통졸업요건!$E$57</f>
+        <v>X</v>
+      </c>
+      <c r="H7" s="153"/>
+      <c r="I7" s="152" t="str">
+        <f>공통졸업요건!$E$78</f>
+        <v>X</v>
+      </c>
+      <c r="J7" s="152" t="str">
+        <f>공통졸업요건!$E$87</f>
+        <v>X</v>
+      </c>
+      <c r="K7" s="152" t="str">
+        <f>공통졸업요건!$J$96</f>
+        <v>X</v>
+      </c>
+      <c r="L7" s="152" t="str">
+        <f>공통졸업요건!$E$105</f>
+        <v>X</v>
+      </c>
+      <c r="M7" s="152" t="str">
+        <f>공통졸업요건!$E$113</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="19.95" customHeight="1">
+      <c r="B8" s="148">
+        <v>18</v>
+      </c>
+      <c r="C8" s="152" t="str">
+        <f>공통졸업요건!$E$5</f>
+        <v>X</v>
+      </c>
+      <c r="D8" s="152" t="str">
+        <f>공통졸업요건!$E$18</f>
+        <v>X</v>
+      </c>
+      <c r="E8" s="152" t="str">
+        <f>공통졸업요건!$E$34</f>
+        <v>X</v>
+      </c>
+      <c r="F8" s="152" t="str">
+        <f>공통졸업요건!$E$44</f>
+        <v>X</v>
+      </c>
+      <c r="G8" s="152" t="str">
+        <f>공통졸업요건!$E$57</f>
+        <v>X</v>
+      </c>
+      <c r="H8" s="152" t="str">
+        <f>공통졸업요건!$E$69</f>
+        <v>X</v>
+      </c>
+      <c r="I8" s="152" t="str">
+        <f>공통졸업요건!$E$78</f>
+        <v>X</v>
+      </c>
+      <c r="J8" s="152" t="str">
+        <f>공통졸업요건!$E$87</f>
+        <v>X</v>
+      </c>
+      <c r="K8" s="152" t="str">
+        <f>공통졸업요건!$J$96</f>
+        <v>X</v>
+      </c>
+      <c r="L8" s="152" t="str">
+        <f>공통졸업요건!$E$105</f>
+        <v>X</v>
+      </c>
+      <c r="M8" s="152" t="str">
+        <f>공통졸업요건!$E$113</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="19.95" customHeight="1">
+      <c r="B9" s="148">
+        <v>19</v>
+      </c>
+      <c r="C9" s="152" t="str">
+        <f>공통졸업요건!$E$5</f>
+        <v>X</v>
+      </c>
+      <c r="D9" s="152" t="str">
+        <f>공통졸업요건!$E$18</f>
+        <v>X</v>
+      </c>
+      <c r="E9" s="152" t="str">
+        <f>공통졸업요건!$E$34</f>
+        <v>X</v>
+      </c>
+      <c r="F9" s="152" t="str">
+        <f>공통졸업요건!$E$44</f>
+        <v>X</v>
+      </c>
+      <c r="G9" s="152" t="str">
+        <f>공통졸업요건!$E$57</f>
+        <v>X</v>
+      </c>
+      <c r="H9" s="152" t="str">
+        <f>공통졸업요건!$E$69</f>
+        <v>X</v>
+      </c>
+      <c r="I9" s="152" t="str">
+        <f>공통졸업요건!$E$78</f>
+        <v>X</v>
+      </c>
+      <c r="J9" s="152" t="str">
+        <f>공통졸업요건!$E$87</f>
+        <v>X</v>
+      </c>
+      <c r="K9" s="152" t="str">
+        <f>공통졸업요건!$J$96</f>
+        <v>X</v>
+      </c>
+      <c r="L9" s="152" t="str">
+        <f>공통졸업요건!$E$105</f>
+        <v>X</v>
+      </c>
+      <c r="M9" s="152" t="str">
+        <f>공통졸업요건!$E$113</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="19.95" customHeight="1">
+      <c r="B10" s="148">
+        <v>20</v>
+      </c>
+      <c r="C10" s="152" t="str">
+        <f>공통졸업요건!$E$5</f>
+        <v>X</v>
+      </c>
+      <c r="D10" s="152" t="str">
+        <f>공통졸업요건!$E$18</f>
+        <v>X</v>
+      </c>
+      <c r="E10" s="152" t="str">
+        <f>공통졸업요건!$E$34</f>
+        <v>X</v>
+      </c>
+      <c r="F10" s="152" t="str">
+        <f>공통졸업요건!$E$44</f>
+        <v>X</v>
+      </c>
+      <c r="G10" s="152" t="str">
+        <f>공통졸업요건!$E$57</f>
+        <v>X</v>
+      </c>
+      <c r="H10" s="152" t="str">
+        <f>공통졸업요건!$E$69</f>
+        <v>X</v>
+      </c>
+      <c r="I10" s="152" t="str">
+        <f>공통졸업요건!$E$78</f>
+        <v>X</v>
+      </c>
+      <c r="J10" s="152" t="str">
+        <f>공통졸업요건!$E$87</f>
+        <v>X</v>
+      </c>
+      <c r="K10" s="152" t="str">
+        <f>공통졸업요건!$J$96</f>
+        <v>X</v>
+      </c>
+      <c r="L10" s="152" t="str">
+        <f>공통졸업요건!$E$105</f>
+        <v>X</v>
+      </c>
+      <c r="M10" s="152" t="str">
+        <f>공통졸업요건!$E$113</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="19.95" customHeight="1">
+      <c r="B11" s="148">
+        <v>21</v>
+      </c>
+      <c r="C11" s="152" t="str">
+        <f>공통졸업요건!$E$5</f>
+        <v>X</v>
+      </c>
+      <c r="D11" s="152" t="str">
+        <f>공통졸업요건!$E$18</f>
+        <v>X</v>
+      </c>
+      <c r="E11" s="152" t="str">
+        <f>공통졸업요건!$E$34</f>
+        <v>X</v>
+      </c>
+      <c r="F11" s="152" t="str">
+        <f>공통졸업요건!$E$44</f>
+        <v>X</v>
+      </c>
+      <c r="G11" s="152" t="str">
+        <f>공통졸업요건!$E$57</f>
+        <v>X</v>
+      </c>
+      <c r="H11" s="152" t="str">
+        <f>공통졸업요건!$E$69</f>
+        <v>X</v>
+      </c>
+      <c r="I11" s="152" t="str">
+        <f>공통졸업요건!$J$78</f>
+        <v>X</v>
+      </c>
+      <c r="J11" s="152" t="str">
+        <f>공통졸업요건!$E$87</f>
+        <v>X</v>
+      </c>
+      <c r="K11" s="152" t="str">
+        <f>공통졸업요건!$J$96</f>
+        <v>X</v>
+      </c>
+      <c r="L11" s="152" t="str">
+        <f>공통졸업요건!$E$105</f>
+        <v>X</v>
+      </c>
+      <c r="M11" s="152" t="str">
+        <f>공통졸업요건!$E$113</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="19.95" customHeight="1">
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="112"/>
+    </row>
+    <row r="13" spans="2:13" ht="19.95" customHeight="1">
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="112"/>
+    </row>
+    <row r="14" spans="2:13" ht="40.049999999999997" customHeight="1">
+      <c r="B14" s="148" t="s">
+        <v>311</v>
+      </c>
+      <c r="C14" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="D14" s="106" t="s">
+        <v>328</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="106" t="s">
+        <v>330</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="H14" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="J14" s="145"/>
+    </row>
+    <row r="15" spans="2:13" ht="19.95" customHeight="1">
+      <c r="B15" s="148">
+        <v>15</v>
+      </c>
+      <c r="C15" s="154" t="str">
+        <f>전공별졸업요건!$E$5</f>
+        <v>X</v>
+      </c>
+      <c r="D15" s="154" t="str">
+        <f>전공별졸업요건!$E$15</f>
+        <v>X</v>
+      </c>
+      <c r="E15" s="154" t="str">
+        <f>전공별졸업요건!$E$29</f>
+        <v>X</v>
+      </c>
+      <c r="F15" s="154" t="str">
+        <f>전공별졸업요건!$E$43</f>
+        <v>X</v>
+      </c>
+      <c r="G15" s="154" t="str">
+        <f>전공별졸업요건!$E$57</f>
+        <v>X</v>
+      </c>
+      <c r="H15" s="154" t="str">
+        <f>전공별졸업요건!$E$72</f>
+        <v>X</v>
+      </c>
+      <c r="I15" s="154" t="str">
+        <f>전공별졸업요건!$E$88</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="19.95" customHeight="1">
+      <c r="B16" s="148">
+        <v>16</v>
+      </c>
+      <c r="C16" s="154" t="str">
+        <f>전공별졸업요건!$E$5</f>
+        <v>X</v>
+      </c>
+      <c r="D16" s="154" t="str">
+        <f>전공별졸업요건!$E$15</f>
+        <v>X</v>
+      </c>
+      <c r="E16" s="154" t="str">
+        <f>전공별졸업요건!$J$29</f>
+        <v>X</v>
+      </c>
+      <c r="F16" s="154" t="str">
+        <f>전공별졸업요건!$E$43</f>
+        <v>X</v>
+      </c>
+      <c r="G16" s="154" t="str">
+        <f>전공별졸업요건!$E$57</f>
+        <v>X</v>
+      </c>
+      <c r="H16" s="154" t="str">
+        <f>전공별졸업요건!$E$72</f>
+        <v>X</v>
+      </c>
+      <c r="I16" s="154" t="str">
+        <f>전공별졸업요건!$E$88</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B17" s="148">
+        <v>17</v>
+      </c>
+      <c r="C17" s="154" t="str">
+        <f>전공별졸업요건!$E$5</f>
+        <v>X</v>
+      </c>
+      <c r="D17" s="154" t="str">
+        <f>전공별졸업요건!$E$15</f>
+        <v>X</v>
+      </c>
+      <c r="E17" s="154" t="str">
+        <f>전공별졸업요건!$J$29</f>
+        <v>X</v>
+      </c>
+      <c r="F17" s="154" t="str">
+        <f>전공별졸업요건!$E$43</f>
+        <v>X</v>
+      </c>
+      <c r="G17" s="154" t="str">
+        <f>전공별졸업요건!$E$57</f>
+        <v>X</v>
+      </c>
+      <c r="H17" s="154" t="str">
+        <f>전공별졸업요건!$E$72</f>
+        <v>X</v>
+      </c>
+      <c r="I17" s="154" t="str">
+        <f>전공별졸업요건!$E$88</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" s="145" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B18" s="148">
+        <v>18</v>
+      </c>
+      <c r="C18" s="154" t="str">
+        <f>전공별졸업요건!$J$5</f>
+        <v>X</v>
+      </c>
+      <c r="D18" s="154" t="str">
+        <f>전공별졸업요건!$J$15</f>
+        <v>X</v>
+      </c>
+      <c r="E18" s="154" t="str">
+        <f>전공별졸업요건!$O$29</f>
+        <v>X</v>
+      </c>
+      <c r="F18" s="154" t="str">
+        <f>전공별졸업요건!$J$43</f>
+        <v>X</v>
+      </c>
+      <c r="G18" s="154" t="str">
+        <f>전공별졸업요건!$J$57</f>
+        <v>X</v>
+      </c>
+      <c r="H18" s="154" t="str">
+        <f>전공별졸업요건!$J$72</f>
+        <v>X</v>
+      </c>
+      <c r="I18" s="154" t="str">
+        <f>전공별졸업요건!$J$88</f>
+        <v>X</v>
+      </c>
+      <c r="J18" s="106"/>
+    </row>
+    <row r="19" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B19" s="148">
+        <v>19</v>
+      </c>
+      <c r="C19" s="154" t="str">
+        <f>전공별졸업요건!$J$5</f>
+        <v>X</v>
+      </c>
+      <c r="D19" s="154" t="str">
+        <f>전공별졸업요건!$J$15</f>
+        <v>X</v>
+      </c>
+      <c r="E19" s="154" t="str">
+        <f>전공별졸업요건!$O$29</f>
+        <v>X</v>
+      </c>
+      <c r="F19" s="154" t="str">
+        <f>전공별졸업요건!$J$43</f>
+        <v>X</v>
+      </c>
+      <c r="G19" s="154" t="str">
+        <f>전공별졸업요건!$J$57</f>
+        <v>X</v>
+      </c>
+      <c r="H19" s="154" t="str">
+        <f>전공별졸업요건!$J$72</f>
+        <v>X</v>
+      </c>
+      <c r="I19" s="154" t="str">
+        <f>전공별졸업요건!$J$88</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B20" s="148">
+        <v>20</v>
+      </c>
+      <c r="C20" s="154" t="str">
+        <f>전공별졸업요건!$J$5</f>
+        <v>X</v>
+      </c>
+      <c r="D20" s="154" t="str">
+        <f>전공별졸업요건!$J$15</f>
+        <v>X</v>
+      </c>
+      <c r="E20" s="154" t="str">
+        <f>전공별졸업요건!$O$29</f>
+        <v>X</v>
+      </c>
+      <c r="F20" s="154" t="str">
+        <f>전공별졸업요건!$J$43</f>
+        <v>X</v>
+      </c>
+      <c r="G20" s="154" t="str">
+        <f>전공별졸업요건!$J$57</f>
+        <v>X</v>
+      </c>
+      <c r="H20" s="154" t="str">
+        <f>전공별졸업요건!$J$72</f>
+        <v>X</v>
+      </c>
+      <c r="I20" s="154" t="str">
+        <f>전공별졸업요건!$J$88</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B21" s="148">
+        <v>21</v>
+      </c>
+      <c r="C21" s="154" t="str">
+        <f>전공별졸업요건!$J$5</f>
+        <v>X</v>
+      </c>
+      <c r="D21" s="154" t="str">
+        <f>전공별졸업요건!$J$15</f>
+        <v>X</v>
+      </c>
+      <c r="E21" s="154" t="str">
+        <f>전공별졸업요건!$O$29</f>
+        <v>X</v>
+      </c>
+      <c r="F21" s="154" t="str">
+        <f>전공별졸업요건!$J$43</f>
+        <v>X</v>
+      </c>
+      <c r="G21" s="154" t="str">
+        <f>전공별졸업요건!$J$57</f>
+        <v>X</v>
+      </c>
+      <c r="H21" s="154" t="str">
+        <f>전공별졸업요건!$J$72</f>
+        <v>X</v>
+      </c>
+      <c r="I21" s="154" t="str">
+        <f>전공별졸업요건!$J$88</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" ht="19.95" customHeight="1">
+      <c r="L22" s="112"/>
+      <c r="M22" s="112"/>
+      <c r="P22" s="112"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="112"/>
+      <c r="S22" s="112"/>
+      <c r="T22" s="112"/>
+      <c r="U22" s="112"/>
+      <c r="V22" s="112"/>
+    </row>
+    <row r="24" spans="2:22" ht="40.049999999999997" customHeight="1">
+      <c r="B24" s="148" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="D24" s="106" t="s">
+        <v>328</v>
+      </c>
+      <c r="E24" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="F24" s="106" t="s">
+        <v>330</v>
+      </c>
+      <c r="G24" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="H24" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="I24" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="J24" s="145"/>
+    </row>
+    <row r="25" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B25" s="148">
+        <v>15</v>
+      </c>
+      <c r="C25" s="108">
+        <f>전공별졸업요건!$E$10</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="108">
+        <f>전공별졸업요건!$E$22</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="108">
+        <f>전공별졸업요건!$E$36</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="108">
+        <f>전공별졸업요건!$E$52</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="108">
+        <f>전공별졸업요건!$E$65</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="108">
+        <f>전공별졸업요건!$E$81</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="108">
+        <f>전공별졸업요건!$E$96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B26" s="148">
+        <v>16</v>
+      </c>
+      <c r="C26" s="108">
+        <f>전공별졸업요건!$E$10</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="108">
+        <f>전공별졸업요건!$E$22</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="108">
+        <f>전공별졸업요건!$J$34</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="108">
+        <f>전공별졸업요건!$E$52</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="108">
+        <f>전공별졸업요건!$E$65</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="108">
+        <f>전공별졸업요건!$E$81</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="108">
+        <f>전공별졸업요건!$E$96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B27" s="148">
+        <v>17</v>
+      </c>
+      <c r="C27" s="108">
+        <f>전공별졸업요건!$E$10</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="108">
+        <f>전공별졸업요건!$E$22</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="108">
+        <f>전공별졸업요건!$J$34</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="108">
+        <f>전공별졸업요건!$E$52</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="108">
+        <f>전공별졸업요건!$E$65</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="108">
+        <f>전공별졸업요건!$E$81</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="108">
+        <f>전공별졸업요건!$E$96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" s="145" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B28" s="148">
+        <v>18</v>
+      </c>
+      <c r="C28" s="108">
+        <f>전공별졸업요건!$J$10</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="108">
+        <f>전공별졸업요건!$J$24</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="108">
+        <f>전공별졸업요건!$O$38</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="108">
+        <f>전공별졸업요건!$J$51</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="108">
+        <f>전공별졸업요건!$J$67</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="108">
+        <f>전공별졸업요건!$J$83</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="108">
+        <f>전공별졸업요건!$J$98</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="106"/>
+    </row>
+    <row r="29" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B29" s="148">
+        <v>19</v>
+      </c>
+      <c r="C29" s="108">
+        <f>전공별졸업요건!$J$10</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="108">
+        <f>전공별졸업요건!$J$24</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="108">
+        <f>전공별졸업요건!$O$38</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="108">
+        <f>전공별졸업요건!$J$51</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="108">
+        <f>전공별졸업요건!$J$67</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="108">
+        <f>전공별졸업요건!$J$83</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="108">
+        <f>전공별졸업요건!$J$98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B30" s="148">
+        <v>20</v>
+      </c>
+      <c r="C30" s="108">
+        <f>전공별졸업요건!$J$10</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="108">
+        <f>전공별졸업요건!$J$24</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="108">
+        <f>전공별졸업요건!$O$38</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="108">
+        <f>전공별졸업요건!$J$51</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="108">
+        <f>전공별졸업요건!$J$67</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="108">
+        <f>전공별졸업요건!$J$83</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="108">
+        <f>전공별졸업요건!$J$98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22" ht="19.95" customHeight="1">
+      <c r="B31" s="148">
+        <v>21</v>
+      </c>
+      <c r="C31" s="108">
+        <f>전공별졸업요건!$J$10</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="108">
+        <f>전공별졸업요건!$J$24</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="108">
+        <f>전공별졸업요건!$O$38</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="108">
+        <f>전공별졸업요건!$J$51</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="108">
+        <f>전공별졸업요건!$J$67</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="108">
+        <f>전공별졸업요건!$J$83</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="108">
+        <f>전공별졸업요건!$J$98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" ht="40.049999999999997" customHeight="1">
+      <c r="B34" s="151" t="s">
+        <v>336</v>
+      </c>
+      <c r="C34" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" s="106" t="s">
+        <v>328</v>
+      </c>
+      <c r="E34" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="F34" s="106" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="H34" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="I34" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="J34" s="107"/>
+      <c r="K34" s="109"/>
+    </row>
+    <row r="35" spans="2:11" ht="19.95" customHeight="1">
+      <c r="B35" s="151" t="s">
+        <v>318</v>
+      </c>
+      <c r="C35" s="112">
+        <f ca="1">SUMIFS(수강과목요약!$G$6:$G$1000,수강과목요약!$H$6:$H$1000,"&lt;&gt;F",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="112">
+        <f ca="1">SUMIFS(수강과목요약!$G$6:$G$1000,수강과목요약!$H$6:$H$1000,"&lt;&gt;F",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="112">
+        <f ca="1">SUMIFS(수강과목요약!$G$6:$G$1000,수강과목요약!$H$6:$H$1000,"&lt;&gt;F",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="112">
+        <f ca="1">SUMIFS(수강과목요약!$G$6:$G$1000,수강과목요약!$H$6:$H$1000,"&lt;&gt;F",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="112">
+        <f ca="1">SUMIFS(수강과목요약!$G$6:$G$1000,수강과목요약!$H$6:$H$1000,"&lt;&gt;F",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="112">
+        <f ca="1">SUMIFS(수강과목요약!$G$6:$G$1000,수강과목요약!$H$6:$H$1000,"&lt;&gt;F",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="112">
+        <f ca="1">SUMIFS(수강과목요약!$G$6:$G$1000,수강과목요약!$H$6:$H$1000,"&lt;&gt;F",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="19.95" customHeight="1">
+      <c r="B36" s="151" t="s">
+        <v>316</v>
+      </c>
+      <c r="C36" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"사회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")+COUNTIFS(수강과목요약!$F$6:$F$1000,"해회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"사회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")+COUNTIFS(수강과목요약!$F$6:$F$1000,"해회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"사회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")+COUNTIFS(수강과목요약!$F$6:$F$1000,"해회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"사회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")+COUNTIFS(수강과목요약!$F$6:$F$1000,"해회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"사회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")+COUNTIFS(수강과목요약!$F$6:$F$1000,"해회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"사회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")+COUNTIFS(수강과목요약!$F$6:$F$1000,"해회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"사회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")+COUNTIFS(수강과목요약!$F$6:$F$1000,"해회봉사",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="112"/>
+      <c r="K36" s="110"/>
+    </row>
+    <row r="37" spans="2:11" ht="19.95" customHeight="1">
+      <c r="B37" s="151" t="s">
+        <v>335</v>
+      </c>
+      <c r="C37" s="108">
+        <f>IF(C36&gt;=2,C36-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="108">
+        <f>IF(D36&gt;=2,D36-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="108">
+        <f>IF(E36&gt;=2,E36-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="108">
+        <f>IF(F36&gt;=2,F36-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="108">
+        <f>IF(G36&gt;=2,G36-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="108">
+        <f>IF(H36&gt;=2,H36-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="108">
+        <f>IF(I36&gt;=2,I36-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="112"/>
+      <c r="K37" s="110"/>
+    </row>
+    <row r="38" spans="2:11" ht="19.95" customHeight="1">
+      <c r="B38" s="151" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"창의함양",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"창의함양",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"창의함양",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"창의함양",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"창의함양",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"창의함양",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="108">
+        <f>COUNTIFS(수강과목요약!$F$6:$F$1000,"창의함양",수강과목요약!$H$6:$H$1000,"&lt;&gt;U")</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="112"/>
+      <c r="K38" s="110"/>
+    </row>
+    <row r="39" spans="2:11" ht="19.95" customHeight="1">
+      <c r="B39" s="151" t="s">
+        <v>334</v>
+      </c>
+      <c r="C39" s="108">
+        <f>IF(C38&gt;=2,C38-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="108">
+        <f>IF(D38&gt;=2,D38-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="108">
+        <f>IF(E38&gt;=2,E38-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="108">
+        <f>IF(F38&gt;=2,F38-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="108">
+        <f>IF(G38&gt;=2,G38-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="108">
+        <f>IF(H38&gt;=2,H38-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="108">
+        <f>IF(I38&gt;=2,I38-1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="112"/>
+      <c r="K39" s="110"/>
+    </row>
+    <row r="40" spans="2:11" ht="19.95" customHeight="1">
+      <c r="B40" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="111">
+        <f>VLOOKUP($C$2,$B$25:$I$31,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="111">
+        <f>VLOOKUP($C$2,$B$25:$I$31,3,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="111">
+        <f>VLOOKUP($C$2,$B$25:$I$31,4,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="111">
+        <f>VLOOKUP($C$2,$B$25:$I$31,5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="111">
+        <f>VLOOKUP($C$2,$B$25:$I$31,6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="111">
+        <f>VLOOKUP($C$2,$B$25:$I$31,7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="111">
+        <f>VLOOKUP($C$2,$B$25:$I$31,8,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="112"/>
+      <c r="K40" s="110"/>
+    </row>
+    <row r="41" spans="2:11" ht="19.95" customHeight="1">
+      <c r="B41" s="150" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="111">
+        <f>공통졸업요건!$E$64</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="111">
+        <f>공통졸업요건!$E$64</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="111">
+        <f>공통졸업요건!$E$64</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="111">
+        <f>공통졸업요건!$E$64</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="111">
+        <f>공통졸업요건!$E$64</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="111">
+        <f>공통졸업요건!$E$64</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="111">
+        <f>공통졸업요건!$E$64</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="112"/>
+      <c r="K41" s="110"/>
+    </row>
+    <row r="42" spans="2:11" ht="19.95" customHeight="1">
+      <c r="B42" s="150" t="s">
+        <v>338</v>
+      </c>
+      <c r="C42" s="110">
+        <f ca="1">C43-C40-C41</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="110">
+        <f ca="1">D43-D40-D41</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="110">
+        <f ca="1">E43-E40-E41</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="110">
+        <f ca="1">F43-F40-F41</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="110">
+        <f ca="1">G43-G40-G41</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="110">
+        <f ca="1">H43-H40-H41</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="110">
+        <f ca="1">I43-I40-I41</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="112"/>
+      <c r="K42" s="110"/>
+    </row>
+    <row r="43" spans="2:11" ht="19.95" customHeight="1">
+      <c r="B43" s="150" t="s">
+        <v>319</v>
+      </c>
+      <c r="C43" s="110">
+        <f ca="1">C35-C37-C39</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="110">
+        <f ca="1">D35-D37-D39</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="110">
+        <f ca="1">E35-E37-E39</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="110">
+        <f ca="1">F35-F37-F39</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="110">
+        <f ca="1">G35-G37-G39</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="110">
+        <f ca="1">H35-H37-H39</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="110">
+        <f ca="1">I35-I37-I39</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C15:I17 C25:I27" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{144DE57C-7555-469C-AFD9-AD57907B4815}">
-  <dimension ref="B1:J109"/>
+  <dimension ref="B1:J116"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -2287,19 +4796,19 @@
   <sheetData>
     <row r="1" spans="2:9" ht="7.8" customHeight="1"/>
     <row r="2" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
     </row>
     <row r="3" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
       <c r="E3" s="5" t="s">
         <v>42</v>
       </c>
@@ -2444,19 +4953,19 @@
     </row>
     <row r="14" spans="2:9" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="15" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" spans="2:9" ht="19.95" customHeight="1">
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="119" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
       <c r="E16" s="5" t="s">
         <v>42</v>
       </c>
@@ -2643,19 +5152,19 @@
     </row>
     <row r="30" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="31" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B31" s="93" t="s">
+      <c r="B31" s="120" t="s">
         <v>88</v>
       </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="120"/>
+      <c r="E31" s="120"/>
     </row>
     <row r="32" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="94"/>
-      <c r="D32" s="94"/>
+      <c r="C32" s="121"/>
+      <c r="D32" s="121"/>
       <c r="E32" s="5" t="s">
         <v>42</v>
       </c>
@@ -2760,19 +5269,19 @@
     </row>
     <row r="40" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="41" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="120" t="s">
         <v>95</v>
       </c>
-      <c r="C41" s="93"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
+      <c r="E41" s="120"/>
     </row>
     <row r="42" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B42" s="94" t="s">
+      <c r="B42" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="94"/>
-      <c r="D42" s="94"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
       <c r="E42" s="5" t="s">
         <v>42</v>
       </c>
@@ -2828,7 +5337,7 @@
       <c r="C46" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D46" s="95" t="s">
+      <c r="D46" s="122" t="s">
         <v>101</v>
       </c>
       <c r="E46" s="47" t="str">
@@ -2843,7 +5352,7 @@
       <c r="C47" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="D47" s="96"/>
+      <c r="D47" s="123"/>
       <c r="E47" s="70" t="str">
         <f>IF(SUMIF(전체개설과목정보!$AR$6:$AR$1000,"*학술적 글쓰기",전체개설과목정보!$AV$6:$AV$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -2856,7 +5365,7 @@
       <c r="C48" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="D48" s="97"/>
+      <c r="D48" s="124"/>
       <c r="E48" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$AR$6:$AR$1000,"*창의적 글쓰기",전체개설과목정보!$AV$6:$AV$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -2869,7 +5378,7 @@
       <c r="C49" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="D49" s="98" t="s">
+      <c r="D49" s="125" t="s">
         <v>107</v>
       </c>
       <c r="E49" s="19" t="str">
@@ -2884,7 +5393,7 @@
       <c r="C50" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="D50" s="96"/>
+      <c r="D50" s="123"/>
       <c r="E50" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$AR$6:$AR$1000,"*고전 읽기와 글쓰기",전체개설과목정보!$AV$6:$AV$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -2897,7 +5406,7 @@
       <c r="C51" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="D51" s="96"/>
+      <c r="D51" s="123"/>
       <c r="E51" s="19" t="str">
         <f>IF(SUMIF(전체개설과목정보!$AR$6:$AR$1000,"*비평적 글쓰기",전체개설과목정보!$AV$6:$AV$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -2910,7 +5419,7 @@
       <c r="C52" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="99"/>
+      <c r="D52" s="126"/>
       <c r="E52" s="23" t="str">
         <f>IF(SUMIF(전체개설과목정보!$AR$6:$AR$1000,"*디지털 스토리텔링",전체개설과목정보!$AV$6:$AV$1000)&gt;0,"O","X")</f>
         <v>X</v>
@@ -2918,19 +5427,19 @@
     </row>
     <row r="53" spans="2:5" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="54" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B54" s="100" t="s">
+      <c r="B54" s="127" t="s">
         <v>114</v>
       </c>
-      <c r="C54" s="89"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="101"/>
+      <c r="C54" s="116"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="128"/>
     </row>
     <row r="55" spans="2:5" ht="19.95" customHeight="1">
-      <c r="B55" s="88" t="s">
+      <c r="B55" s="115" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="89"/>
-      <c r="D55" s="90"/>
+      <c r="C55" s="116"/>
+      <c r="D55" s="117"/>
       <c r="E55" s="42" t="s">
         <v>116</v>
       </c>
@@ -2988,7 +5497,7 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="12">
-        <f>SUMPRODUCT('교양과목-예체능'!$E$6:$E$1000,'교양과목-예체능'!$F$6:$F$1000)</f>
+        <f>SUMPRODUCT('교양-예체능-연구'!$E$6:$E$1000,'교양-예체능-연구'!$F$6:$F$1000)</f>
         <v>0</v>
       </c>
     </row>
@@ -3016,7 +5525,7 @@
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="12">
-        <f>SUMPRODUCT('교양과목-예체능'!$K$6:$K$1000,'교양과목-예체능'!$L$6:$L$1000)</f>
+        <f>SUMPRODUCT('교양-예체능-연구'!$K$6:$K$1000,'교양-예체능-연구'!$L$6:$L$1000)</f>
         <v>0</v>
       </c>
     </row>
@@ -3044,7 +5553,7 @@
       </c>
       <c r="D63" s="46"/>
       <c r="E63" s="47">
-        <f>SUMPRODUCT('교양과목-예체능'!$Q$6:$Q$1000,'교양과목-예체능'!$R$6:$R$1000)</f>
+        <f>SUMPRODUCT('교양-예체능-연구'!$Q$6:$Q$1000,'교양-예체능-연구'!$R$6:$R$1000)</f>
         <v>0</v>
       </c>
     </row>
@@ -3063,12 +5572,12 @@
     </row>
     <row r="65" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="66" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B66" s="102" t="s">
+      <c r="B66" s="113" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
+      <c r="C66" s="113"/>
+      <c r="D66" s="113"/>
+      <c r="E66" s="113"/>
       <c r="F66" s="49"/>
       <c r="G66" s="49"/>
       <c r="H66" s="49"/>
@@ -3076,11 +5585,11 @@
       <c r="J66" s="49"/>
     </row>
     <row r="67" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B67" s="103" t="s">
+      <c r="B67" s="114" t="s">
         <v>41</v>
       </c>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
       <c r="E67" s="50" t="s">
         <v>137</v>
       </c>
@@ -3216,35 +5725,35 @@
       <c r="J74" s="49"/>
     </row>
     <row r="75" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B75" s="104" t="s">
+      <c r="B75" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="C75" s="104"/>
-      <c r="D75" s="104"/>
-      <c r="E75" s="104"/>
+      <c r="C75" s="131"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="131"/>
       <c r="F75" s="49"/>
-      <c r="G75" s="104" t="s">
+      <c r="G75" s="131" t="s">
         <v>145</v>
       </c>
-      <c r="H75" s="104"/>
-      <c r="I75" s="104"/>
-      <c r="J75" s="104"/>
+      <c r="H75" s="131"/>
+      <c r="I75" s="131"/>
+      <c r="J75" s="131"/>
     </row>
     <row r="76" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B76" s="105" t="s">
+      <c r="B76" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="C76" s="105"/>
-      <c r="D76" s="105"/>
+      <c r="C76" s="132"/>
+      <c r="D76" s="132"/>
       <c r="E76" s="50" t="s">
         <v>146</v>
       </c>
       <c r="F76" s="49"/>
-      <c r="G76" s="105" t="s">
+      <c r="G76" s="132" t="s">
         <v>41</v>
       </c>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="132"/>
       <c r="J76" s="50" t="s">
         <v>147</v>
       </c>
@@ -3406,35 +5915,35 @@
       <c r="J83" s="49"/>
     </row>
     <row r="84" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B84" s="108" t="s">
+      <c r="B84" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="C84" s="108"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
+      <c r="C84" s="129"/>
+      <c r="D84" s="129"/>
+      <c r="E84" s="129"/>
       <c r="F84" s="49"/>
-      <c r="G84" s="108" t="s">
+      <c r="G84" s="129" t="s">
         <v>162</v>
       </c>
-      <c r="H84" s="108"/>
-      <c r="I84" s="108"/>
-      <c r="J84" s="108"/>
+      <c r="H84" s="129"/>
+      <c r="I84" s="129"/>
+      <c r="J84" s="129"/>
     </row>
     <row r="85" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B85" s="109" t="s">
+      <c r="B85" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="109"/>
-      <c r="D85" s="109"/>
+      <c r="C85" s="130"/>
+      <c r="D85" s="130"/>
       <c r="E85" s="50" t="s">
         <v>155</v>
       </c>
       <c r="F85" s="49"/>
-      <c r="G85" s="109" t="s">
+      <c r="G85" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="H85" s="109"/>
-      <c r="I85" s="109"/>
+      <c r="H85" s="130"/>
+      <c r="I85" s="130"/>
       <c r="J85" s="50" t="s">
         <v>156</v>
       </c>
@@ -3533,7 +6042,7 @@
       </c>
       <c r="D89" s="56"/>
       <c r="E89" s="57">
-        <f>SUMIF('교양과목-예체능'!$U$6:$U$1000,"02??",'교양과목-예체능'!$X$6:$X$1000)</f>
+        <f>SUMIF('교양-예체능-연구'!$U$6:$U$1000,"02??",'교양-예체능-연구'!$X$6:$X$1000)</f>
         <v>0</v>
       </c>
       <c r="F89" s="49"/>
@@ -3545,7 +6054,7 @@
       </c>
       <c r="I89" s="56"/>
       <c r="J89" s="57">
-        <f>SUMIF('교양과목-예체능'!$U$6:$U$1000,"02??",'교양과목-예체능'!$X$6:$X$1000)</f>
+        <f>SUMIF('교양-예체능-연구'!$U$6:$U$1000,"02??",'교양-예체능-연구'!$X$6:$X$1000)</f>
         <v>0</v>
       </c>
     </row>
@@ -3587,7 +6096,7 @@
       </c>
       <c r="D91" s="56"/>
       <c r="E91" s="57">
-        <f>SUMIF('교양과목-예체능'!$U$6:$U$1000,"01??",'교양과목-예체능'!$X$6:$X$1000)</f>
+        <f>SUMIF('교양-예체능-연구'!$U$6:$U$1000,"01??",'교양-예체능-연구'!$X$6:$X$1000)</f>
         <v>0</v>
       </c>
       <c r="F91" s="49"/>
@@ -3599,39 +6108,39 @@
       </c>
       <c r="I91" s="56"/>
       <c r="J91" s="57">
-        <f>SUMIF('교양과목-예체능'!$U$6:$U$1000,"01??",'교양과목-예체능'!$X$6:$X$1000)</f>
+        <f>SUMIF('교양-예체능-연구'!$U$6:$U$1000,"01??",'교양-예체능-연구'!$X$6:$X$1000)</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
     <row r="93" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B93" s="106" t="s">
+      <c r="B93" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="C93" s="106"/>
-      <c r="D93" s="106"/>
-      <c r="E93" s="106"/>
-      <c r="G93" s="106" t="s">
+      <c r="C93" s="139"/>
+      <c r="D93" s="139"/>
+      <c r="E93" s="139"/>
+      <c r="G93" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="H93" s="106"/>
-      <c r="I93" s="106"/>
-      <c r="J93" s="106"/>
+      <c r="H93" s="139"/>
+      <c r="I93" s="139"/>
+      <c r="J93" s="139"/>
     </row>
     <row r="94" spans="2:10" ht="19.95" customHeight="1">
-      <c r="B94" s="107" t="s">
+      <c r="B94" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="107"/>
-      <c r="D94" s="107"/>
+      <c r="C94" s="138"/>
+      <c r="D94" s="138"/>
       <c r="E94" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="G94" s="107" t="s">
+      <c r="G94" s="138" t="s">
         <v>166</v>
       </c>
-      <c r="H94" s="107"/>
-      <c r="I94" s="107"/>
+      <c r="H94" s="138"/>
+      <c r="I94" s="138"/>
       <c r="J94" s="64" t="s">
         <v>182</v>
       </c>
@@ -3771,30 +6280,191 @@
       </c>
     </row>
     <row r="101" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
-    <row r="102" spans="2:10" ht="19.95" customHeight="1"/>
-    <row r="103" spans="2:10" ht="19.95" customHeight="1"/>
-    <row r="104" spans="2:10" ht="19.95" customHeight="1"/>
-    <row r="105" spans="2:10" ht="19.95" customHeight="1"/>
-    <row r="106" spans="2:10" ht="19.95" customHeight="1"/>
-    <row r="107" spans="2:10" ht="19.95" customHeight="1"/>
-    <row r="108" spans="2:10" ht="19.95" customHeight="1"/>
-    <row r="109" spans="2:10" ht="19.95" customHeight="1"/>
+    <row r="102" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B102" s="140" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="140"/>
+      <c r="D102" s="140"/>
+      <c r="E102" s="140"/>
+    </row>
+    <row r="103" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B103" s="141" t="s">
+        <v>41</v>
+      </c>
+      <c r="C103" s="141"/>
+      <c r="D103" s="141"/>
+      <c r="E103" s="97" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="2:10" ht="40.049999999999997" customHeight="1">
+      <c r="B104" s="99" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" s="100" t="s">
+        <v>118</v>
+      </c>
+      <c r="D104" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="E104" s="101" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B105" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="D105" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E105" s="12" t="str">
+        <f>IF(AND(E106="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="106" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B106" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="D106" s="68" t="s">
+        <v>299</v>
+      </c>
+      <c r="E106" s="33" t="str">
+        <f>IF(AND(E107="O", E108="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="107" spans="2:10" s="96" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B107" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="D107" s="46"/>
+      <c r="E107" s="47" t="str">
+        <f>IF(SUMIF('교양-예체능-연구'!AA6:AA1000,"9102",'교양-예체능-연구'!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="108" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B108" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D108" s="22"/>
+      <c r="E108" s="23" t="str">
+        <f>IF(SUMIF('교양-예체능-연구'!AA6:AA1000,"9103",'교양-예체능-연구'!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="109" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
+    <row r="110" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B110" s="131" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110" s="133"/>
+      <c r="D110" s="134"/>
+      <c r="E110" s="135"/>
+    </row>
+    <row r="111" spans="2:10">
+      <c r="B111" s="132" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="136"/>
+      <c r="D111" s="137"/>
+      <c r="E111" s="102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="2:10" ht="34.799999999999997">
+      <c r="B112" s="103" t="s">
+        <v>117</v>
+      </c>
+      <c r="C112" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="D112" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="E112" s="105" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" ht="18" thickBot="1">
+      <c r="B113" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="D113" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="E113" s="12" t="str">
+        <f>IF(AND(E114="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" ht="18.600000000000001" thickTop="1" thickBot="1">
+      <c r="B114" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="D114" s="68" t="s">
+        <v>309</v>
+      </c>
+      <c r="E114" s="33" t="str">
+        <f>IF(E115&gt;=2,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="18" thickBot="1">
+      <c r="B115" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="D115" s="35"/>
+      <c r="E115" s="23">
+        <f>ROUND(IFERROR(AVERAGE(수강과목요약!I6:I1000),0),2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="18" thickTop="1"/>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="B93:E93"/>
+  <mergeCells count="30">
+    <mergeCell ref="B110:E110"/>
+    <mergeCell ref="B111:D111"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="G93:J93"/>
     <mergeCell ref="G94:I94"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="B103:D103"/>
     <mergeCell ref="B84:E84"/>
     <mergeCell ref="G84:J84"/>
     <mergeCell ref="B85:D85"/>
     <mergeCell ref="G85:I85"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:D67"/>
     <mergeCell ref="B75:E75"/>
     <mergeCell ref="G75:J75"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="G76:I76"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:D67"/>
     <mergeCell ref="B55:D55"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:D3"/>
@@ -3814,31 +6484,2258 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82EA54A-1846-4739-A8BA-A6621C4FBB77}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:O99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0481ECDC-ABC9-4B4B-AAEF-86B682EFFFE2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="1" customWidth="1"/>
+    <col min="2" max="2" width="4.19921875" customWidth="1"/>
+    <col min="3" max="3" width="25.69921875" customWidth="1"/>
+    <col min="4" max="4" width="40.69921875" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="4.19921875" customWidth="1"/>
+    <col min="8" max="8" width="25.69921875" customWidth="1"/>
+    <col min="9" max="9" width="40.69921875" customWidth="1"/>
+    <col min="10" max="10" width="7.69921875" customWidth="1"/>
+    <col min="11" max="11" width="3" customWidth="1"/>
+    <col min="12" max="12" width="4.19921875" customWidth="1"/>
+    <col min="13" max="13" width="25.69921875" customWidth="1"/>
+    <col min="14" max="14" width="40.69921875" customWidth="1"/>
+    <col min="15" max="15" width="7.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B2" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="G2" s="113" t="s">
+        <v>186</v>
+      </c>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+    </row>
+    <row r="3" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B3" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="40.049999999999997" customHeight="1">
+      <c r="B4" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" s="12" t="str">
+        <f>IF(AND(E6="O",E9="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f>IF(AND(J6="O",J9="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B6" s="13">
+        <v>1</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="33" t="str">
+        <f>IF(COUNTIF(E7:E8,"O")&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G6" s="13">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="J6" s="33" t="str">
+        <f>IF(COUNTIF(J7:J8,"O")=COUNTA(J7:J8),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B7" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="89"/>
+      <c r="E7" s="47" t="str">
+        <f>IF(SUMIF(기초및전공과목!$P$6:$P$1000,"전자공학*",기초및전공과목!$R$6:$R$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="89"/>
+      <c r="J7" s="47" t="str">
+        <f>IF(SUMIF(기초및전공과목!$P$6:$P$1000,"전자공학*",기초및전공과목!$R$6:$R$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="19" t="str">
+        <f>IF(SUMIF(기초및전공과목!$P$6:$P$1000,"컴퓨터 시스템 이론 및 실험",기초및전공과목!$R$6:$R$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="19" t="str">
+        <f>IF(SUMIF(기초및전공과목!$P$6:$P$1000,"컴퓨터 시스템 이론 및 실험",기초및전공과목!$R$6:$R$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E9" s="33" t="str">
+        <f>IF(E10&gt;=30,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="33" t="str">
+        <f>IF(J10&gt;=36,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B10" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$Q$6:$Q$1000,기초및전공과목!$R$6:$R$1000)&gt;36, 36, SUMPRODUCT(기초및전공과목!$Q$6:$Q$1000,기초및전공과목!$R$6:$R$1000))</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H10" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="I10" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="J10" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$Q$6:$Q$1000,기초및전공과목!$R$6:$R$1000)&gt;42, 42, SUMPRODUCT(기초및전공과목!$Q$6:$Q$1000,기초및전공과목!$R$6:$R$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
+    <row r="12" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B12" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="G12" s="113" t="s">
+        <v>198</v>
+      </c>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
+    </row>
+    <row r="13" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B13" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="40.049999999999997" customHeight="1">
+      <c r="B14" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E15" s="12" t="str">
+        <f>IF(AND(E16="O",E21="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f>IF(AND(J16="O",J23="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B16" s="13">
+        <v>1</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="33" t="str">
+        <f>IF(COUNTIF(E17:E20,"O")=COUNTA(E17:E20),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J16" s="33" t="str">
+        <f>IF(COUNTIF(J17:J22,"O")=COUNTA(J17:J22),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B17" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="89"/>
+      <c r="E17" s="47" t="str">
+        <f>IF(SUMIF(기초및전공과목!$V$6:$V$1000,"재료과학",기초및전공과목!$X$6:$X$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G17" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="45" t="s">
+        <v>202</v>
+      </c>
+      <c r="I17" s="89"/>
+      <c r="J17" s="47" t="str">
+        <f>IF(SUMIF(기초및전공과목!$V$6:$V$1000,"재료과학",기초및전공과목!$X$6:$X$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B18" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D18" s="90"/>
+      <c r="E18" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$V$6:$V$1000,"고분자과학",기초및전공과목!$X$6:$X$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="I18" s="91"/>
+      <c r="J18" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$V$6:$V$1000,"열역학",기초및전공과목!$X$6:$X$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B19" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D19" s="90"/>
+      <c r="E19" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$V$6:$V$1000,"전자재료실험",기초및전공과목!$X$6:$X$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="I19" s="91"/>
+      <c r="J19" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$V$6:$V$1000,"유기재료화학",기초및전공과목!$X$6:$X$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="23" t="str">
+        <f>IF(SUMIF(기초및전공과목!$V$6:$V$1000,"유기재료실험",기초및전공과목!$X$6:$X$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="I20" s="90"/>
+      <c r="J20" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$V$6:$V$1000,"고분자과학",기초및전공과목!$X$6:$X$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B21" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E21" s="33" t="str">
+        <f>IF(E22&gt;=30,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="I21" s="90"/>
+      <c r="J21" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$V$6:$V$1000,"전자재료실험",기초및전공과목!$X$6:$X$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B22" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$W$6:$W$1000,기초및전공과목!$X$6:$X$1000)&gt;36, 36, SUMPRODUCT(기초및전공과목!$W$6:$W$1000,기초및전공과목!$X$6:$X$1000))</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I22" s="11"/>
+      <c r="J22" s="23" t="str">
+        <f>IF(SUMIF(기초및전공과목!$V$6:$V$1000,"유기재료실험",기초및전공과목!$X$6:$X$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="G23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="J23" s="33" t="str">
+        <f>IF(J24&gt;=30,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="19.95" customHeight="1" thickBot="1">
+      <c r="G24" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="55" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$W$6:$W$1000,기초및전공과목!$X$6:$X$1000)&gt;42, 42, SUMPRODUCT(기초및전공과목!$W$6:$W$1000,기초및전공과목!$X$6:$X$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="19.95" customHeight="1" thickTop="1"/>
+    <row r="26" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B26" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="113"/>
+      <c r="G26" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="H26" s="113"/>
+      <c r="I26" s="113"/>
+      <c r="J26" s="113"/>
+      <c r="L26" s="113" t="s">
+        <v>216</v>
+      </c>
+      <c r="M26" s="113"/>
+      <c r="N26" s="113"/>
+      <c r="O26" s="113"/>
+    </row>
+    <row r="27" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B27" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="88">
+        <v>15</v>
+      </c>
+      <c r="G27" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="114"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="L27" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="114"/>
+      <c r="N27" s="114"/>
+      <c r="O27" s="88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" ht="40.049999999999997" customHeight="1">
+      <c r="B28" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H28" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I28" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="M28" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="N28" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="O28" s="60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="12" t="str">
+        <f>IF(AND(E30="O",E35="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J29" s="12" t="str">
+        <f>IF(AND(J30="O",J33="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="L29" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="O29" s="12" t="str">
+        <f>IF(AND(O30="O",O37="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="33" t="str">
+        <f>IF(COUNTIF(E31:E34,"O")=COUNTA(E31:E34),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G30" s="13">
+        <v>1</v>
+      </c>
+      <c r="H30" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" s="33" t="str">
+        <f>IF(COUNTIF(J31:J32,"O")=COUNTA(J31:J32),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="L30" s="13">
+        <v>1</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="N30" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="O30" s="33" t="str">
+        <f>IF(COUNTIF(O31:O36,"O")=COUNTA(O31:O36),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B31" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="E31" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,OR("열유체역학*","유체역학*","열역학*"),기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G31" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H31" s="45" t="s">
+        <v>220</v>
+      </c>
+      <c r="I31" s="89"/>
+      <c r="J31" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,"기구동역학*",기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="L31" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="M31" s="45" t="s">
+        <v>211</v>
+      </c>
+      <c r="N31" s="89"/>
+      <c r="O31" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,"열역학*",기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B32" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="90"/>
+      <c r="E32" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,"고체역학*",기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="H32" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="I32" s="92"/>
+      <c r="J32" s="23" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,"유체역학*",기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="L32" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="N32" s="90"/>
+      <c r="O32" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,"고체역학*",기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B33" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" s="90"/>
+      <c r="E33" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,"기구동역학*",기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H33" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="J33" s="33" t="str">
+        <f>IF(J34&gt;=30,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="L33" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M33" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="N33" s="90"/>
+      <c r="O33" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,"유체역학*",기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B34" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="92"/>
+      <c r="E34" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,"공학설계*",기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="I34" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="J34" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$AC$6:$AC$1000,기초및전공과목!$AD$6:$AD$1000)&gt;36, 36, SUMPRODUCT(기초및전공과목!$AC$6:$AC$1000,기초및전공과목!$AD$6:$AD$1000))</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="M34" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="N34" s="90"/>
+      <c r="O34" s="19" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,"동역학*",기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B35" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E35" s="33" t="str">
+        <f>IF(E36&gt;=30,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="L35" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="M35" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="N35" s="90"/>
+      <c r="O35" s="19" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,AND("기계공학실험*",OR("*I","*Ⅰ")),기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B36" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="D36" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$AC$6:$AC$1000,기초및전공과목!$AD$6:$AD$1000)&gt;36, 36, SUMPRODUCT(기초및전공과목!$AC$6:$AC$1000,기초및전공과목!$AD$6:$AD$1000))</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="M36" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="N36" s="92"/>
+      <c r="O36" s="19" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AB$6:$AB$1000,AND("기계공학실험*",OR("*II","*Ⅱ")),기초및전공과목!$AD$6:$AD$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="L37" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="N37" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O37" s="33" t="str">
+        <f>IF(O38&gt;=36,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" ht="19.95" customHeight="1" thickBot="1">
+      <c r="L38" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="M38" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="N38" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="O38" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$AC$6:$AC$1000,기초및전공과목!$AD$6:$AD$1000)&gt;42, 42, SUMPRODUCT(기초및전공과목!$AC$6:$AC$1000,기초및전공과목!$AD$6:$AD$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" ht="19.95" customHeight="1" thickTop="1"/>
+    <row r="40" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B40" s="113" t="s">
+        <v>233</v>
+      </c>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="G40" s="113" t="s">
+        <v>233</v>
+      </c>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+    </row>
+    <row r="41" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B41" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="114"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="114"/>
+      <c r="I41" s="114"/>
+      <c r="J41" s="88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" ht="40.049999999999997" customHeight="1">
+      <c r="B42" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G42" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H42" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" s="60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B43" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E43" s="12" t="str">
+        <f>IF(AND(E44="O",E51="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J43" s="12" t="str">
+        <f>IF(AND(J44="O",J50="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B44" s="13">
+        <v>1</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E44" s="33" t="str">
+        <f>IF(COUNTIF(E45:E50,"O")=COUNTA(E45:E50),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G44" s="13">
+        <v>1</v>
+      </c>
+      <c r="H44" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J44" s="33" t="str">
+        <f>IF(COUNTIF(J45:J49,"O")=COUNTA(J45:J49),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B45" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="D45" s="89"/>
+      <c r="E45" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,"환경공학",기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G45" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="45" t="s">
+        <v>236</v>
+      </c>
+      <c r="I45" s="89"/>
+      <c r="J45" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,"환경공학",기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B46" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="D46" s="142" t="s">
+        <v>294</v>
+      </c>
+      <c r="E46" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,OR("대기학", "지구시스템과학"),기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G46" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="I46" s="90"/>
+      <c r="J46" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,AND("환경분석실험*",OR("*I","*Ⅰ")),기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B47" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="143"/>
+      <c r="E47" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,OR("해양학", "지구시스템과학"),기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G47" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H47" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="I47" s="91"/>
+      <c r="J47" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,"지구시스템과학",기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" ht="19.95" customHeight="1">
+      <c r="B48" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="91"/>
+      <c r="E48" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,AND("환경분석실험*",OR("*I","*Ⅰ")),기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G48" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H48" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="I48" s="90"/>
+      <c r="J48" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,AND("지구환경*", "*이동현상"),기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B49" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="D49" s="90"/>
+      <c r="E49" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,AND("지구환경*", "*열역학"),기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G49" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="I49" s="92"/>
+      <c r="J49" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,AND("환경분석실험*",OR("*II","*Ⅱ")),기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B50" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="92"/>
+      <c r="E50" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AH$6:$AH$1000,AND("지구환경*", "*이동현상"),기초및전공과목!$AJ$6:$AJ$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J50" s="33" t="str">
+        <f>IF(J51&gt;=36,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B51" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="D51" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" s="33" t="str">
+        <f>IF(E52&gt;=30,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="I51" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="J51" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$AI$6:$AI$1000,기초및전공과목!$AJ$6:$AJ$1000)&gt;42, 42, SUMPRODUCT(기초및전공과목!$AI$6:$AI$1000,기초및전공과목!$AJ$6:$AJ$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B52" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E52" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$AI$6:$AI$1000,기초및전공과목!$AJ$6:$AJ$1000)&gt;36, 36, SUMPRODUCT(기초및전공과목!$AI$6:$AI$1000,기초및전공과목!$AJ$6:$AJ$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
+    <row r="54" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B54" s="113" t="s">
+        <v>247</v>
+      </c>
+      <c r="C54" s="113"/>
+      <c r="D54" s="113"/>
+      <c r="E54" s="113"/>
+      <c r="G54" s="113" t="s">
+        <v>247</v>
+      </c>
+      <c r="H54" s="113"/>
+      <c r="I54" s="113"/>
+      <c r="J54" s="113"/>
+    </row>
+    <row r="55" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B55" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="G55" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="88" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" ht="40.049999999999997" customHeight="1">
+      <c r="B56" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C56" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G56" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H56" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J56" s="60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B57" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="12" t="str">
+        <f>IF(AND(E58="O",E64="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J57" s="12" t="str">
+        <f>IF(AND(J58="O",J66="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B58" s="13">
+        <v>1</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="33" t="str">
+        <f>IF(COUNTIF(E60:E63,"O")=COUNTA(E60:E63),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G58" s="13">
+        <v>1</v>
+      </c>
+      <c r="H58" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J58" s="33" t="str">
+        <f>IF(COUNTIF(J59:J65,"O")=COUNTA(J59:J65),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B59" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>256</v>
+      </c>
+      <c r="D59" s="89"/>
+      <c r="E59" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,AND("생화학*",OR("*I","*Ⅰ")),기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G59" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H59" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="I59" s="89"/>
+      <c r="J59" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,AND("유기화학*",OR("*I","*Ⅰ")),기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B60" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D60" s="90"/>
+      <c r="E60" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,AND("생화학*",OR("*II","*Ⅱ")),기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G60" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="I60" s="90"/>
+      <c r="J60" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,"분자생물학",기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B61" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,"세포생물학",기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G61" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H61" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="I61" s="90"/>
+      <c r="J61" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,"생화학·분자생물학 실험",기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B62" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="D62" s="90"/>
+      <c r="E62" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,"생화학·분자생물학 실험",기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G62" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H62" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="I62" s="90"/>
+      <c r="J62" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,AND("생화학*",OR("*I","*Ⅰ")),기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B63" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="D63" s="92"/>
+      <c r="E63" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,"세포·발생생물학 실험",기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G63" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="H63" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="I63" s="94"/>
+      <c r="J63" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,AND("생화학*",OR("*II","*Ⅱ")),기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B64" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E64" s="33" t="str">
+        <f>IF(E65&gt;=30,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G64" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="H64" s="93" t="s">
+        <v>250</v>
+      </c>
+      <c r="I64" s="94"/>
+      <c r="J64" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,"세포생물학",기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B65" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="D65" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$AO$6:$AO$1000,기초및전공과목!$AP$6:$AP$1000)&gt;36, 36, SUMPRODUCT(기초및전공과목!$AO$6:$AO$1000,기초및전공과목!$AP$6:$AP$1000))</f>
+        <v>0</v>
+      </c>
+      <c r="G65" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="I65" s="92"/>
+      <c r="J65" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AN$6:$AN$1000,"세포·발생생물학 실험",기초및전공과목!$AP$6:$AP$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="G66" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="I66" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J66" s="33" t="str">
+        <f>IF(J67&gt;=36,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="G67" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H67" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="I67" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="J67" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$AO$6:$AO$1000,기초및전공과목!$AP$6:$AP$1000)&gt;42, 42, SUMPRODUCT(기초및전공과목!$AO$6:$AO$1000,기초및전공과목!$AP$6:$AP$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
+    <row r="69" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B69" s="113" t="s">
+        <v>260</v>
+      </c>
+      <c r="C69" s="113"/>
+      <c r="D69" s="113"/>
+      <c r="E69" s="113"/>
+      <c r="G69" s="113" t="s">
+        <v>260</v>
+      </c>
+      <c r="H69" s="113"/>
+      <c r="I69" s="113"/>
+      <c r="J69" s="113"/>
+    </row>
+    <row r="70" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B70" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="G70" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H70" s="114"/>
+      <c r="I70" s="114"/>
+      <c r="J70" s="88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" ht="40.049999999999997" customHeight="1">
+      <c r="B71" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E71" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G71" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H71" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I71" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J71" s="60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B72" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E72" s="12" t="str">
+        <f>IF(OR(E73="O",E80="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J72" s="12" t="str">
+        <f>IF(OR(J73="O",J82="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B73" s="13">
+        <v>1</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" s="33" t="str">
+        <f>IF(COUNTIF(E74:E79,"O")=COUNTA(E74:E79),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G73" s="13">
+        <v>1</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="I73" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J73" s="33" t="str">
+        <f>IF(COUNTIF(J74:J81,"O")=COUNTA(J74:J81),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B74" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="D74" s="89"/>
+      <c r="E74" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,AND("전자기학 및 연습*",OR("*II","*Ⅱ")),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G74" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H74" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="I74" s="89"/>
+      <c r="J74" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,AND("고전역학 및 연습*",OR("*I","*Ⅰ")),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B75" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="D75" s="90"/>
+      <c r="E75" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,AND("양자물리 및 연습*",OR("*I","*Ⅰ")),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="I75" s="90"/>
+      <c r="J75" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,AND("전자기학 및 연습*",OR("*I","*Ⅰ")),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B76" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D76" s="90"/>
+      <c r="E76" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,AND("양자물리 및 연습*",OR("*II","*Ⅱ")),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H76" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="I76" s="90"/>
+      <c r="J76" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,AND("전자기학 및 연습*",OR("*II","*Ⅱ")),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B77" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D77" s="90"/>
+      <c r="E77" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,"열역학 및 통계물리",기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G77" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H77" s="29" t="s">
+        <v>262</v>
+      </c>
+      <c r="I77" s="90"/>
+      <c r="J77" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,AND("양자물리 및 연습*",OR("*I","*Ⅰ")),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B78" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="D78" s="94"/>
+      <c r="E78" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,AND("물리실험*",OR("*I","*Ⅰ")),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G78" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="H78" s="93" t="s">
+        <v>263</v>
+      </c>
+      <c r="I78" s="94"/>
+      <c r="J78" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,AND("양자물리 및 연습*",OR("*II","*Ⅱ")),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B79" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="D79" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="E79" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,OR(AND("수리물리*",OR("*I","*Ⅰ")), "수리물리 및 연습"),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G79" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="H79" s="93" t="s">
+        <v>264</v>
+      </c>
+      <c r="I79" s="94"/>
+      <c r="J79" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,"열역학 및 통계물리",기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B80" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="D80" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E80" s="33" t="str">
+        <f>IF(E81&gt;=30,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G80" s="95" t="s">
+        <v>275</v>
+      </c>
+      <c r="H80" s="93" t="s">
+        <v>265</v>
+      </c>
+      <c r="I80" s="94"/>
+      <c r="J80" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,AND("물리실험*",OR("*I","*Ⅰ")),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B81" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="D81" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$AU$6:$AU$1000,기초및전공과목!$AV$6:$AV$1000)&gt;36, 36, SUMPRODUCT(기초및전공과목!$AU$6:$AU$1000,기초및전공과목!$AV$6:$AV$1000))</f>
+        <v>0</v>
+      </c>
+      <c r="G81" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="I81" s="92"/>
+      <c r="J81" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AT$6:$AT$1000,OR(AND("수리물리*",OR("*I","*Ⅰ")), "수리물리 및 연습"),기초및전공과목!$AV$6:$AV$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="82" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="G82" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H82" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="I82" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J82" s="33" t="str">
+        <f>IF(J83&gt;=30,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="83" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="G83" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H83" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="I83" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="J83" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$AU$6:$AU$1000,기초및전공과목!$AV$6:$AV$1000)&gt;36, 36, SUMPRODUCT(기초및전공과목!$AU$6:$AU$1000,기초및전공과목!$AV$6:$AV$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:10" ht="19.95" customHeight="1" thickTop="1"/>
+    <row r="85" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B85" s="113" t="s">
+        <v>278</v>
+      </c>
+      <c r="C85" s="113"/>
+      <c r="D85" s="113"/>
+      <c r="E85" s="113"/>
+      <c r="G85" s="113" t="s">
+        <v>278</v>
+      </c>
+      <c r="H85" s="113"/>
+      <c r="I85" s="113"/>
+      <c r="J85" s="113"/>
+    </row>
+    <row r="86" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B86" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="C86" s="114"/>
+      <c r="D86" s="114"/>
+      <c r="E86" s="88" t="s">
+        <v>244</v>
+      </c>
+      <c r="G86" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="H86" s="114"/>
+      <c r="I86" s="114"/>
+      <c r="J86" s="88" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="2:10" ht="40.049999999999997" customHeight="1">
+      <c r="B87" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="G87" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="H87" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I87" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J87" s="60" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B88" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E88" s="12" t="str">
+        <f>IF(OR(E89="O",E95="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G88" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H88" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="J88" s="12" t="str">
+        <f>IF(OR(J89="O",J97="O"),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="89" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B89" s="13">
+        <v>1</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" s="33" t="str">
+        <f>IF(COUNTIF(E90:E94,"O")=COUNTA(E90:E94),"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G89" s="13">
+        <v>1</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="I89" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="J89" s="33" t="str">
+        <f>IF(COUNTIF(J90:J96,"O")=COUNTA(J90:J96),"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="90" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B90" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="C90" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="D90" s="89"/>
+      <c r="E90" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,"화학합성실험",기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G90" s="44" t="s">
+        <v>189</v>
+      </c>
+      <c r="H90" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="I90" s="89"/>
+      <c r="J90" s="47" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,"분석화학",기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="91" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B91" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="C91" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="D91" s="90"/>
+      <c r="E91" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,"고급화학실험",기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G91" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="H91" s="29" t="s">
+        <v>282</v>
+      </c>
+      <c r="I91" s="90"/>
+      <c r="J91" s="19" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,OR(AND("물리화학*",OR("*II","*Ⅱ")), AND("물리화학*","*A")),기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="92" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B92" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="C92" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" s="90" t="s">
+        <v>287</v>
+      </c>
+      <c r="E92" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,OR(AND("물리화학*",OR("*II","*Ⅱ")), AND("물리화학*","*A")),기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G92" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="H92" s="29" t="s">
+        <v>290</v>
+      </c>
+      <c r="I92" s="90"/>
+      <c r="J92" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,AND("유기화학*",OR("*II","*Ⅰ")),기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="93" spans="2:10" ht="19.95" customHeight="1">
+      <c r="B93" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C93" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93" s="90"/>
+      <c r="E93" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,AND("유기화학*",OR("*II","*Ⅱ")),기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G93" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="H93" s="29" t="s">
+        <v>291</v>
+      </c>
+      <c r="I93" s="90"/>
+      <c r="J93" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,AND("유기화학*","*B"),기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="94" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B94" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D94" s="92"/>
+      <c r="E94" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,AND("생화학*",OR("*I","*Ⅰ")),기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G94" s="95" t="s">
+        <v>214</v>
+      </c>
+      <c r="H94" s="93" t="s">
+        <v>292</v>
+      </c>
+      <c r="I94" s="94"/>
+      <c r="J94" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,"화학합성실험",기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="95" spans="2:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B95" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="E95" s="33" t="str">
+        <f>IF(E96&gt;=30,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="G95" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="H95" s="93" t="s">
+        <v>256</v>
+      </c>
+      <c r="I95" s="94"/>
+      <c r="J95" s="70" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,AND("생화학*",OR("*I","*Ⅰ")),기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="96" spans="2:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="B96" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="D96" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="E96" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$BA$6:$BA$1000,기초및전공과목!$BB$6:$BB$1000)&gt;36, 36, SUMPRODUCT(기초및전공과목!$BA$6:$BA$1000,기초및전공과목!$BB$6:$BB$1000))</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="H96" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="I96" s="92"/>
+      <c r="J96" s="23" t="str">
+        <f>IF(SUMIF(기초및전공과목!$AZ$6:$AZ$1000,"무기화학",기초및전공과목!$BB$6:$BB$1000)&gt;0,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10" ht="19.95" customHeight="1" thickTop="1" thickBot="1">
+      <c r="G97" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H97" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="I97" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="J97" s="33" t="str">
+        <f>IF(J98&gt;=36,"O","X")</f>
+        <v>X</v>
+      </c>
+    </row>
+    <row r="98" spans="7:10" ht="19.95" customHeight="1" thickBot="1">
+      <c r="G98" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H98" s="55" t="s">
+        <v>289</v>
+      </c>
+      <c r="I98" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="J98" s="23">
+        <f>IF(SUMPRODUCT(기초및전공과목!$BA$6:$BA$1000,기초및전공과목!$BB$6:$BB$1000)&gt;42, 42, SUMPRODUCT(기초및전공과목!$BA$6:$BA$1000,기초및전공과목!$BB$6:$BB$1000))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="7:10" ht="19.95" customHeight="1" thickTop="1"/>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:I86"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3846,11 +8743,1687 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0481ECDC-ABC9-4B4B-AAEF-86B682EFFFE2}">
+  <dimension ref="B1:BB367"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="1" style="71" customWidth="1"/>
+    <col min="2" max="2" width="12" style="71" customWidth="1"/>
+    <col min="3" max="3" width="9" style="71" customWidth="1"/>
+    <col min="4" max="4" width="35" style="71" customWidth="1"/>
+    <col min="5" max="6" width="9" style="71" customWidth="1"/>
+    <col min="7" max="7" width="3" style="71" customWidth="1"/>
+    <col min="8" max="8" width="12" style="71" customWidth="1"/>
+    <col min="9" max="9" width="9" style="71" customWidth="1"/>
+    <col min="10" max="10" width="35" style="71" customWidth="1"/>
+    <col min="11" max="12" width="9" style="71" customWidth="1"/>
+    <col min="13" max="13" width="3" style="71" customWidth="1"/>
+    <col min="14" max="14" width="12" style="71" customWidth="1"/>
+    <col min="15" max="15" width="9" style="71" customWidth="1"/>
+    <col min="16" max="16" width="35" style="71" customWidth="1"/>
+    <col min="17" max="18" width="9" style="71" customWidth="1"/>
+    <col min="19" max="19" width="3" style="71" customWidth="1"/>
+    <col min="20" max="20" width="12" style="71" customWidth="1"/>
+    <col min="21" max="21" width="9" style="71" customWidth="1"/>
+    <col min="22" max="22" width="35" style="71" customWidth="1"/>
+    <col min="23" max="24" width="9" style="71" customWidth="1"/>
+    <col min="25" max="25" width="3" style="71" customWidth="1"/>
+    <col min="26" max="26" width="12" style="71" customWidth="1"/>
+    <col min="27" max="27" width="9" style="71" customWidth="1"/>
+    <col min="28" max="28" width="35" style="71" customWidth="1"/>
+    <col min="29" max="30" width="9" style="71" customWidth="1"/>
+    <col min="31" max="31" width="3" style="71" customWidth="1"/>
+    <col min="32" max="32" width="12" style="71" customWidth="1"/>
+    <col min="33" max="33" width="9" style="71" customWidth="1"/>
+    <col min="34" max="34" width="35" style="71" customWidth="1"/>
+    <col min="35" max="36" width="9" style="71" customWidth="1"/>
+    <col min="37" max="37" width="3" style="71" customWidth="1"/>
+    <col min="38" max="38" width="12" style="71" customWidth="1"/>
+    <col min="39" max="39" width="9" style="71" customWidth="1"/>
+    <col min="40" max="40" width="35" style="71" customWidth="1"/>
+    <col min="41" max="42" width="9" style="71" customWidth="1"/>
+    <col min="43" max="43" width="3" style="71" customWidth="1"/>
+    <col min="44" max="44" width="12" style="71" customWidth="1"/>
+    <col min="45" max="45" width="9" style="71" customWidth="1"/>
+    <col min="46" max="46" width="35" style="71" customWidth="1"/>
+    <col min="47" max="48" width="9" style="71" customWidth="1"/>
+    <col min="49" max="49" width="3" style="71" customWidth="1"/>
+    <col min="50" max="50" width="12" style="71" customWidth="1"/>
+    <col min="51" max="51" width="9" style="71" customWidth="1"/>
+    <col min="52" max="52" width="35" style="71" customWidth="1"/>
+    <col min="53" max="54" width="9" style="71" customWidth="1"/>
+    <col min="55" max="16384" width="8.796875" style="71"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:54" ht="7.95" customHeight="1"/>
+    <row r="2" spans="2:54" ht="40.049999999999997" customHeight="1"/>
+    <row r="3" spans="2:54" ht="7.95" customHeight="1"/>
+    <row r="4" spans="2:54" ht="19.95" customHeight="1">
+      <c r="B4" s="72"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="73"/>
+      <c r="AB4" s="73"/>
+      <c r="AC4" s="73"/>
+      <c r="AD4" s="73"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
+      <c r="AI4" s="73"/>
+      <c r="AJ4" s="73"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="73"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="73"/>
+      <c r="AP4" s="73"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="73"/>
+      <c r="AT4" s="73"/>
+      <c r="AU4" s="73"/>
+      <c r="AV4" s="73"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="73"/>
+      <c r="AZ4" s="73"/>
+      <c r="BA4" s="73"/>
+      <c r="BB4" s="73"/>
+    </row>
+    <row r="5" spans="2:54" ht="19.95" customHeight="1">
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="74"/>
+      <c r="BB5" s="74"/>
+    </row>
+    <row r="6" spans="2:54">
+      <c r="F6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="R6" s="98"/>
+      <c r="X6" s="98"/>
+      <c r="AD6" s="98"/>
+      <c r="AJ6" s="98"/>
+      <c r="AP6" s="98"/>
+      <c r="AV6" s="98"/>
+      <c r="BB6" s="98"/>
+    </row>
+    <row r="7" spans="2:54">
+      <c r="F7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AP7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="BB7" s="98"/>
+    </row>
+    <row r="8" spans="2:54">
+      <c r="F8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="R8" s="98"/>
+      <c r="X8" s="98"/>
+      <c r="AD8" s="98"/>
+      <c r="AJ8" s="98"/>
+      <c r="AP8" s="98"/>
+      <c r="AV8" s="98"/>
+      <c r="BB8" s="98"/>
+    </row>
+    <row r="9" spans="2:54">
+      <c r="F9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AV9" s="98"/>
+      <c r="BB9" s="98"/>
+    </row>
+    <row r="10" spans="2:54">
+      <c r="F10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AP10" s="98"/>
+      <c r="AV10" s="98"/>
+      <c r="BB10" s="98"/>
+    </row>
+    <row r="11" spans="2:54">
+      <c r="F11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AJ11" s="98"/>
+      <c r="AP11" s="98"/>
+      <c r="AV11" s="98"/>
+      <c r="BB11" s="98"/>
+    </row>
+    <row r="12" spans="2:54">
+      <c r="F12" s="98"/>
+      <c r="L12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AJ12" s="98"/>
+      <c r="AP12" s="98"/>
+      <c r="AV12" s="98"/>
+      <c r="BB12" s="98"/>
+    </row>
+    <row r="13" spans="2:54">
+      <c r="F13" s="98"/>
+      <c r="L13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AJ13" s="98"/>
+      <c r="AP13" s="98"/>
+      <c r="AV13" s="98"/>
+      <c r="BB13" s="98"/>
+    </row>
+    <row r="14" spans="2:54">
+      <c r="F14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AJ14" s="98"/>
+      <c r="AP14" s="98"/>
+      <c r="AV14" s="98"/>
+      <c r="BB14" s="98"/>
+    </row>
+    <row r="15" spans="2:54">
+      <c r="F15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AJ15" s="98"/>
+      <c r="AP15" s="98"/>
+      <c r="AV15" s="98"/>
+      <c r="BB15" s="98"/>
+    </row>
+    <row r="16" spans="2:54">
+      <c r="F16" s="98"/>
+      <c r="R16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AJ16" s="98"/>
+      <c r="AP16" s="98"/>
+      <c r="AV16" s="98"/>
+      <c r="BB16" s="98"/>
+    </row>
+    <row r="17" spans="6:54">
+      <c r="F17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AJ17" s="98"/>
+      <c r="AP17" s="98"/>
+      <c r="AV17" s="98"/>
+      <c r="BB17" s="98"/>
+    </row>
+    <row r="18" spans="6:54">
+      <c r="F18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AJ18" s="98"/>
+      <c r="AP18" s="98"/>
+      <c r="AV18" s="98"/>
+      <c r="BB18" s="98"/>
+    </row>
+    <row r="19" spans="6:54">
+      <c r="F19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AJ19" s="98"/>
+      <c r="AP19" s="98"/>
+      <c r="AV19" s="98"/>
+      <c r="BB19" s="98"/>
+    </row>
+    <row r="20" spans="6:54">
+      <c r="F20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AJ20" s="98"/>
+      <c r="AP20" s="98"/>
+      <c r="AV20" s="98"/>
+      <c r="BB20" s="98"/>
+    </row>
+    <row r="21" spans="6:54">
+      <c r="F21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AJ21" s="98"/>
+      <c r="AP21" s="98"/>
+      <c r="AV21" s="98"/>
+      <c r="BB21" s="98"/>
+    </row>
+    <row r="22" spans="6:54">
+      <c r="F22" s="98"/>
+      <c r="R22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AJ22" s="98"/>
+      <c r="AP22" s="98"/>
+      <c r="AV22" s="98"/>
+      <c r="BB22" s="98"/>
+    </row>
+    <row r="23" spans="6:54">
+      <c r="F23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AJ23" s="98"/>
+      <c r="AP23" s="98"/>
+      <c r="AV23" s="98"/>
+      <c r="BB23" s="98"/>
+    </row>
+    <row r="24" spans="6:54">
+      <c r="F24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AJ24" s="98"/>
+      <c r="AP24" s="98"/>
+      <c r="AV24" s="98"/>
+      <c r="BB24" s="98"/>
+    </row>
+    <row r="25" spans="6:54">
+      <c r="F25" s="98"/>
+      <c r="R25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AJ25" s="98"/>
+      <c r="AP25" s="98"/>
+      <c r="AV25" s="98"/>
+      <c r="BB25" s="98"/>
+    </row>
+    <row r="26" spans="6:54">
+      <c r="F26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AJ26" s="98"/>
+      <c r="AP26" s="98"/>
+      <c r="AV26" s="98"/>
+      <c r="BB26" s="98"/>
+    </row>
+    <row r="27" spans="6:54">
+      <c r="F27" s="98"/>
+      <c r="R27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AJ27" s="98"/>
+      <c r="AP27" s="98"/>
+      <c r="AV27" s="98"/>
+      <c r="BB27" s="98"/>
+    </row>
+    <row r="28" spans="6:54">
+      <c r="F28" s="98"/>
+      <c r="R28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AJ28" s="98"/>
+      <c r="AP28" s="98"/>
+      <c r="AV28" s="98"/>
+      <c r="BB28" s="98"/>
+    </row>
+    <row r="29" spans="6:54">
+      <c r="F29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AJ29" s="98"/>
+      <c r="AP29" s="98"/>
+      <c r="AV29" s="98"/>
+      <c r="BB29" s="98"/>
+    </row>
+    <row r="30" spans="6:54">
+      <c r="F30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AP30" s="98"/>
+      <c r="AV30" s="98"/>
+      <c r="BB30" s="98"/>
+    </row>
+    <row r="31" spans="6:54">
+      <c r="F31" s="98"/>
+      <c r="R31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AJ31" s="98"/>
+      <c r="AP31" s="98"/>
+      <c r="AV31" s="98"/>
+      <c r="BB31" s="98"/>
+    </row>
+    <row r="32" spans="6:54">
+      <c r="F32" s="98"/>
+      <c r="R32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AJ32" s="98"/>
+      <c r="AP32" s="98"/>
+      <c r="AV32" s="98"/>
+      <c r="BB32" s="98"/>
+    </row>
+    <row r="33" spans="6:54">
+      <c r="F33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AJ33" s="98"/>
+      <c r="AP33" s="98"/>
+      <c r="AV33" s="98"/>
+      <c r="BB33" s="98"/>
+    </row>
+    <row r="34" spans="6:54">
+      <c r="F34" s="98"/>
+      <c r="R34" s="98"/>
+      <c r="X34" s="98"/>
+      <c r="AD34" s="98"/>
+      <c r="AJ34" s="98"/>
+      <c r="AP34" s="98"/>
+      <c r="AV34" s="98"/>
+      <c r="BB34" s="98"/>
+    </row>
+    <row r="35" spans="6:54">
+      <c r="F35" s="98"/>
+      <c r="R35" s="98"/>
+      <c r="X35" s="98"/>
+      <c r="AD35" s="98"/>
+      <c r="AJ35" s="98"/>
+      <c r="AP35" s="98"/>
+      <c r="AV35" s="98"/>
+      <c r="BB35" s="98"/>
+    </row>
+    <row r="36" spans="6:54">
+      <c r="F36" s="98"/>
+      <c r="R36" s="98"/>
+      <c r="X36" s="98"/>
+      <c r="AD36" s="98"/>
+      <c r="AJ36" s="98"/>
+      <c r="AP36" s="98"/>
+      <c r="AV36" s="98"/>
+      <c r="BB36" s="98"/>
+    </row>
+    <row r="37" spans="6:54">
+      <c r="F37" s="98"/>
+      <c r="R37" s="98"/>
+      <c r="X37" s="98"/>
+      <c r="AD37" s="98"/>
+      <c r="AJ37" s="98"/>
+      <c r="AP37" s="98"/>
+      <c r="AV37" s="98"/>
+      <c r="BB37" s="98"/>
+    </row>
+    <row r="38" spans="6:54">
+      <c r="F38" s="98"/>
+      <c r="R38" s="98"/>
+      <c r="X38" s="98"/>
+      <c r="AD38" s="98"/>
+      <c r="AJ38" s="98"/>
+      <c r="AP38" s="98"/>
+      <c r="AV38" s="98"/>
+      <c r="BB38" s="98"/>
+    </row>
+    <row r="39" spans="6:54">
+      <c r="F39" s="98"/>
+      <c r="R39" s="98"/>
+      <c r="X39" s="98"/>
+      <c r="AD39" s="98"/>
+      <c r="AJ39" s="98"/>
+      <c r="AP39" s="98"/>
+      <c r="AV39" s="98"/>
+      <c r="BB39" s="98"/>
+    </row>
+    <row r="40" spans="6:54">
+      <c r="F40" s="98"/>
+      <c r="R40" s="98"/>
+      <c r="X40" s="98"/>
+      <c r="AD40" s="98"/>
+      <c r="AJ40" s="98"/>
+      <c r="AP40" s="98"/>
+      <c r="AV40" s="98"/>
+      <c r="BB40" s="98"/>
+    </row>
+    <row r="41" spans="6:54">
+      <c r="F41" s="98"/>
+      <c r="R41" s="98"/>
+      <c r="X41" s="98"/>
+      <c r="AD41" s="98"/>
+      <c r="AJ41" s="98"/>
+      <c r="AP41" s="98"/>
+      <c r="AV41" s="98"/>
+      <c r="BB41" s="98"/>
+    </row>
+    <row r="42" spans="6:54">
+      <c r="F42" s="98"/>
+      <c r="R42" s="98"/>
+      <c r="X42" s="98"/>
+      <c r="AD42" s="98"/>
+      <c r="AJ42" s="98"/>
+      <c r="AP42" s="98"/>
+      <c r="AV42" s="98"/>
+      <c r="BB42" s="98"/>
+    </row>
+    <row r="43" spans="6:54">
+      <c r="F43" s="98"/>
+      <c r="R43" s="98"/>
+      <c r="X43" s="98"/>
+      <c r="AD43" s="98"/>
+      <c r="AJ43" s="98"/>
+      <c r="AP43" s="98"/>
+      <c r="AV43" s="98"/>
+      <c r="BB43" s="98"/>
+    </row>
+    <row r="44" spans="6:54">
+      <c r="F44" s="98"/>
+      <c r="R44" s="98"/>
+      <c r="X44" s="98"/>
+      <c r="AD44" s="98"/>
+      <c r="AJ44" s="98"/>
+      <c r="AP44" s="98"/>
+      <c r="BB44" s="98"/>
+    </row>
+    <row r="45" spans="6:54">
+      <c r="F45" s="98"/>
+      <c r="R45" s="98"/>
+      <c r="X45" s="98"/>
+      <c r="AD45" s="98"/>
+      <c r="AJ45" s="98"/>
+      <c r="AP45" s="98"/>
+      <c r="BB45" s="98"/>
+    </row>
+    <row r="46" spans="6:54">
+      <c r="F46" s="98"/>
+      <c r="R46" s="98"/>
+      <c r="X46" s="98"/>
+      <c r="AD46" s="98"/>
+      <c r="AJ46" s="98"/>
+      <c r="AP46" s="98"/>
+      <c r="BB46" s="98"/>
+    </row>
+    <row r="47" spans="6:54">
+      <c r="F47" s="98"/>
+      <c r="R47" s="98"/>
+      <c r="AD47" s="98"/>
+      <c r="AJ47" s="98"/>
+      <c r="AP47" s="98"/>
+      <c r="BB47" s="98"/>
+    </row>
+    <row r="48" spans="6:54">
+      <c r="F48" s="98"/>
+      <c r="R48" s="98"/>
+      <c r="AD48" s="98"/>
+      <c r="AJ48" s="98"/>
+      <c r="AP48" s="98"/>
+      <c r="BB48" s="98"/>
+    </row>
+    <row r="49" spans="6:54">
+      <c r="F49" s="98"/>
+      <c r="R49" s="98"/>
+      <c r="AD49" s="98"/>
+      <c r="AJ49" s="98"/>
+      <c r="AP49" s="98"/>
+      <c r="BB49" s="98"/>
+    </row>
+    <row r="50" spans="6:54">
+      <c r="F50" s="98"/>
+      <c r="R50" s="98"/>
+      <c r="AD50" s="98"/>
+      <c r="AJ50" s="98"/>
+      <c r="AP50" s="98"/>
+      <c r="BB50" s="98"/>
+    </row>
+    <row r="51" spans="6:54">
+      <c r="F51" s="98"/>
+      <c r="R51" s="98"/>
+      <c r="AD51" s="98"/>
+      <c r="AJ51" s="98"/>
+      <c r="AP51" s="98"/>
+      <c r="BB51" s="98"/>
+    </row>
+    <row r="52" spans="6:54">
+      <c r="F52" s="98"/>
+      <c r="R52" s="98"/>
+      <c r="AD52" s="98"/>
+      <c r="AJ52" s="98"/>
+      <c r="AP52" s="98"/>
+      <c r="BB52" s="98"/>
+    </row>
+    <row r="53" spans="6:54">
+      <c r="F53" s="98"/>
+      <c r="R53" s="98"/>
+      <c r="AD53" s="98"/>
+      <c r="AJ53" s="98"/>
+      <c r="AP53" s="98"/>
+      <c r="BB53" s="98"/>
+    </row>
+    <row r="54" spans="6:54">
+      <c r="F54" s="98"/>
+      <c r="R54" s="98"/>
+      <c r="AD54" s="98"/>
+      <c r="AJ54" s="98"/>
+      <c r="BB54" s="98"/>
+    </row>
+    <row r="55" spans="6:54">
+      <c r="F55" s="98"/>
+      <c r="R55" s="98"/>
+      <c r="AD55" s="98"/>
+      <c r="AJ55" s="98"/>
+      <c r="BB55" s="98"/>
+    </row>
+    <row r="56" spans="6:54">
+      <c r="F56" s="98"/>
+      <c r="R56" s="98"/>
+      <c r="AD56" s="98"/>
+      <c r="AJ56" s="98"/>
+      <c r="BB56" s="98"/>
+    </row>
+    <row r="57" spans="6:54">
+      <c r="F57" s="98"/>
+      <c r="R57" s="98"/>
+      <c r="AD57" s="98"/>
+      <c r="AJ57" s="98"/>
+      <c r="BB57" s="98"/>
+    </row>
+    <row r="58" spans="6:54">
+      <c r="F58" s="98"/>
+      <c r="R58" s="98"/>
+      <c r="AD58" s="98"/>
+      <c r="AJ58" s="98"/>
+      <c r="BB58" s="98"/>
+    </row>
+    <row r="59" spans="6:54">
+      <c r="F59" s="98"/>
+      <c r="R59" s="98"/>
+      <c r="AD59" s="98"/>
+      <c r="BB59" s="98"/>
+    </row>
+    <row r="60" spans="6:54">
+      <c r="F60" s="98"/>
+      <c r="R60" s="98"/>
+      <c r="AD60" s="98"/>
+      <c r="BB60" s="98"/>
+    </row>
+    <row r="61" spans="6:54">
+      <c r="F61" s="98"/>
+      <c r="R61" s="98"/>
+      <c r="AD61" s="98"/>
+      <c r="BB61" s="98"/>
+    </row>
+    <row r="62" spans="6:54">
+      <c r="F62" s="98"/>
+      <c r="R62" s="98"/>
+      <c r="AD62" s="98"/>
+      <c r="BB62" s="98"/>
+    </row>
+    <row r="63" spans="6:54">
+      <c r="F63" s="98"/>
+      <c r="R63" s="98"/>
+      <c r="BB63" s="98"/>
+    </row>
+    <row r="64" spans="6:54">
+      <c r="F64" s="98"/>
+      <c r="R64" s="98"/>
+      <c r="BB64" s="98"/>
+    </row>
+    <row r="65" spans="6:54">
+      <c r="F65" s="98"/>
+      <c r="R65" s="98"/>
+      <c r="BB65" s="98"/>
+    </row>
+    <row r="66" spans="6:54">
+      <c r="F66" s="98"/>
+      <c r="R66" s="98"/>
+      <c r="BB66" s="98"/>
+    </row>
+    <row r="67" spans="6:54">
+      <c r="F67" s="98"/>
+      <c r="R67" s="98"/>
+      <c r="BB67" s="98"/>
+    </row>
+    <row r="68" spans="6:54">
+      <c r="F68" s="98"/>
+      <c r="R68" s="98"/>
+      <c r="BB68" s="98"/>
+    </row>
+    <row r="69" spans="6:54">
+      <c r="F69" s="98"/>
+      <c r="R69" s="98"/>
+      <c r="BB69" s="98"/>
+    </row>
+    <row r="70" spans="6:54">
+      <c r="F70" s="98"/>
+      <c r="R70" s="98"/>
+      <c r="BB70" s="98"/>
+    </row>
+    <row r="71" spans="6:54">
+      <c r="F71" s="98"/>
+      <c r="R71" s="98"/>
+      <c r="BB71" s="98"/>
+    </row>
+    <row r="72" spans="6:54">
+      <c r="F72" s="98"/>
+      <c r="R72" s="98"/>
+      <c r="BB72" s="98"/>
+    </row>
+    <row r="73" spans="6:54">
+      <c r="F73" s="98"/>
+      <c r="R73" s="98"/>
+      <c r="BB73" s="98"/>
+    </row>
+    <row r="74" spans="6:54">
+      <c r="F74" s="98"/>
+      <c r="R74" s="98"/>
+      <c r="BB74" s="98"/>
+    </row>
+    <row r="75" spans="6:54">
+      <c r="F75" s="98"/>
+      <c r="R75" s="98"/>
+      <c r="BB75" s="98"/>
+    </row>
+    <row r="76" spans="6:54">
+      <c r="F76" s="98"/>
+      <c r="R76" s="98"/>
+    </row>
+    <row r="77" spans="6:54">
+      <c r="F77" s="98"/>
+      <c r="R77" s="98"/>
+    </row>
+    <row r="78" spans="6:54">
+      <c r="F78" s="98"/>
+      <c r="R78" s="98"/>
+    </row>
+    <row r="79" spans="6:54">
+      <c r="F79" s="98"/>
+      <c r="R79" s="98"/>
+    </row>
+    <row r="80" spans="6:54">
+      <c r="F80" s="98"/>
+      <c r="R80" s="98"/>
+    </row>
+    <row r="81" spans="6:18">
+      <c r="F81" s="98"/>
+      <c r="R81" s="98"/>
+    </row>
+    <row r="82" spans="6:18">
+      <c r="F82" s="98"/>
+      <c r="R82" s="98"/>
+    </row>
+    <row r="83" spans="6:18">
+      <c r="F83" s="98"/>
+      <c r="R83" s="98"/>
+    </row>
+    <row r="84" spans="6:18">
+      <c r="F84" s="98"/>
+      <c r="R84" s="98"/>
+    </row>
+    <row r="85" spans="6:18">
+      <c r="F85" s="98"/>
+      <c r="R85" s="98"/>
+    </row>
+    <row r="86" spans="6:18">
+      <c r="F86" s="98"/>
+      <c r="R86" s="98"/>
+    </row>
+    <row r="87" spans="6:18">
+      <c r="F87" s="98"/>
+      <c r="R87" s="98"/>
+    </row>
+    <row r="88" spans="6:18">
+      <c r="F88" s="98"/>
+      <c r="R88" s="98"/>
+    </row>
+    <row r="89" spans="6:18">
+      <c r="F89" s="98"/>
+      <c r="R89" s="98"/>
+    </row>
+    <row r="90" spans="6:18">
+      <c r="F90" s="98"/>
+      <c r="R90" s="98"/>
+    </row>
+    <row r="91" spans="6:18">
+      <c r="F91" s="98"/>
+      <c r="R91" s="98"/>
+    </row>
+    <row r="92" spans="6:18">
+      <c r="F92" s="98"/>
+      <c r="R92" s="98"/>
+    </row>
+    <row r="93" spans="6:18">
+      <c r="F93" s="98"/>
+      <c r="R93" s="98"/>
+    </row>
+    <row r="94" spans="6:18">
+      <c r="F94" s="98"/>
+      <c r="R94" s="98"/>
+    </row>
+    <row r="95" spans="6:18">
+      <c r="F95" s="98"/>
+      <c r="R95" s="98"/>
+    </row>
+    <row r="96" spans="6:18">
+      <c r="F96" s="98"/>
+      <c r="R96" s="98"/>
+    </row>
+    <row r="97" spans="6:18">
+      <c r="F97" s="98"/>
+      <c r="R97" s="98"/>
+    </row>
+    <row r="98" spans="6:18">
+      <c r="F98" s="98"/>
+      <c r="R98" s="98"/>
+    </row>
+    <row r="99" spans="6:18">
+      <c r="F99" s="98"/>
+      <c r="R99" s="98"/>
+    </row>
+    <row r="100" spans="6:18">
+      <c r="F100" s="98"/>
+      <c r="R100" s="98"/>
+    </row>
+    <row r="101" spans="6:18">
+      <c r="F101" s="98"/>
+      <c r="R101" s="98"/>
+    </row>
+    <row r="102" spans="6:18">
+      <c r="F102" s="98"/>
+      <c r="R102" s="98"/>
+    </row>
+    <row r="103" spans="6:18">
+      <c r="F103" s="98"/>
+      <c r="R103" s="98"/>
+    </row>
+    <row r="104" spans="6:18">
+      <c r="F104" s="98"/>
+      <c r="R104" s="98"/>
+    </row>
+    <row r="105" spans="6:18">
+      <c r="F105" s="98"/>
+      <c r="R105" s="98"/>
+    </row>
+    <row r="106" spans="6:18">
+      <c r="F106" s="98"/>
+      <c r="R106" s="98"/>
+    </row>
+    <row r="107" spans="6:18">
+      <c r="F107" s="98"/>
+      <c r="R107" s="98"/>
+    </row>
+    <row r="108" spans="6:18">
+      <c r="F108" s="98"/>
+      <c r="R108" s="98"/>
+    </row>
+    <row r="109" spans="6:18">
+      <c r="F109" s="98"/>
+      <c r="R109" s="98"/>
+    </row>
+    <row r="110" spans="6:18">
+      <c r="F110" s="98"/>
+      <c r="R110" s="98"/>
+    </row>
+    <row r="111" spans="6:18">
+      <c r="F111" s="98"/>
+      <c r="R111" s="98"/>
+    </row>
+    <row r="112" spans="6:18">
+      <c r="F112" s="98"/>
+      <c r="R112" s="98"/>
+    </row>
+    <row r="113" spans="6:18">
+      <c r="F113" s="98"/>
+      <c r="R113" s="98"/>
+    </row>
+    <row r="114" spans="6:18">
+      <c r="F114" s="98"/>
+      <c r="R114" s="98"/>
+    </row>
+    <row r="115" spans="6:18">
+      <c r="F115" s="98"/>
+      <c r="R115" s="98"/>
+    </row>
+    <row r="116" spans="6:18">
+      <c r="F116" s="98"/>
+      <c r="R116" s="98"/>
+    </row>
+    <row r="117" spans="6:18">
+      <c r="F117" s="98"/>
+      <c r="R117" s="98"/>
+    </row>
+    <row r="118" spans="6:18">
+      <c r="F118" s="98"/>
+      <c r="R118" s="98"/>
+    </row>
+    <row r="119" spans="6:18">
+      <c r="F119" s="98"/>
+    </row>
+    <row r="120" spans="6:18">
+      <c r="F120" s="98"/>
+    </row>
+    <row r="121" spans="6:18">
+      <c r="F121" s="98"/>
+    </row>
+    <row r="122" spans="6:18">
+      <c r="F122" s="98"/>
+    </row>
+    <row r="123" spans="6:18">
+      <c r="F123" s="98"/>
+    </row>
+    <row r="124" spans="6:18">
+      <c r="F124" s="98"/>
+    </row>
+    <row r="125" spans="6:18">
+      <c r="F125" s="98"/>
+    </row>
+    <row r="126" spans="6:18">
+      <c r="F126" s="98"/>
+    </row>
+    <row r="127" spans="6:18">
+      <c r="F127" s="98"/>
+    </row>
+    <row r="128" spans="6:18">
+      <c r="F128" s="98"/>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="98"/>
+    </row>
+    <row r="130" spans="6:6">
+      <c r="F130" s="98"/>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" s="98"/>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132" s="98"/>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" s="98"/>
+    </row>
+    <row r="134" spans="6:6">
+      <c r="F134" s="98"/>
+    </row>
+    <row r="135" spans="6:6">
+      <c r="F135" s="98"/>
+    </row>
+    <row r="136" spans="6:6">
+      <c r="F136" s="98"/>
+    </row>
+    <row r="137" spans="6:6">
+      <c r="F137" s="98"/>
+    </row>
+    <row r="138" spans="6:6">
+      <c r="F138" s="98"/>
+    </row>
+    <row r="139" spans="6:6">
+      <c r="F139" s="98"/>
+    </row>
+    <row r="140" spans="6:6">
+      <c r="F140" s="98"/>
+    </row>
+    <row r="141" spans="6:6">
+      <c r="F141" s="98"/>
+    </row>
+    <row r="142" spans="6:6">
+      <c r="F142" s="98"/>
+    </row>
+    <row r="143" spans="6:6">
+      <c r="F143" s="98"/>
+    </row>
+    <row r="144" spans="6:6">
+      <c r="F144" s="98"/>
+    </row>
+    <row r="145" spans="6:6">
+      <c r="F145" s="98"/>
+    </row>
+    <row r="146" spans="6:6">
+      <c r="F146" s="98"/>
+    </row>
+    <row r="147" spans="6:6">
+      <c r="F147" s="98"/>
+    </row>
+    <row r="148" spans="6:6">
+      <c r="F148" s="98"/>
+    </row>
+    <row r="149" spans="6:6">
+      <c r="F149" s="98"/>
+    </row>
+    <row r="150" spans="6:6">
+      <c r="F150" s="98"/>
+    </row>
+    <row r="151" spans="6:6">
+      <c r="F151" s="98"/>
+    </row>
+    <row r="152" spans="6:6">
+      <c r="F152" s="98"/>
+    </row>
+    <row r="153" spans="6:6">
+      <c r="F153" s="98"/>
+    </row>
+    <row r="154" spans="6:6">
+      <c r="F154" s="98"/>
+    </row>
+    <row r="155" spans="6:6">
+      <c r="F155" s="98"/>
+    </row>
+    <row r="156" spans="6:6">
+      <c r="F156" s="98"/>
+    </row>
+    <row r="157" spans="6:6">
+      <c r="F157" s="98"/>
+    </row>
+    <row r="158" spans="6:6">
+      <c r="F158" s="98"/>
+    </row>
+    <row r="159" spans="6:6">
+      <c r="F159" s="98"/>
+    </row>
+    <row r="160" spans="6:6">
+      <c r="F160" s="98"/>
+    </row>
+    <row r="161" spans="6:6">
+      <c r="F161" s="98"/>
+    </row>
+    <row r="162" spans="6:6">
+      <c r="F162" s="98"/>
+    </row>
+    <row r="163" spans="6:6">
+      <c r="F163" s="98"/>
+    </row>
+    <row r="164" spans="6:6">
+      <c r="F164" s="98"/>
+    </row>
+    <row r="165" spans="6:6">
+      <c r="F165" s="98"/>
+    </row>
+    <row r="166" spans="6:6">
+      <c r="F166" s="98"/>
+    </row>
+    <row r="167" spans="6:6">
+      <c r="F167" s="98"/>
+    </row>
+    <row r="168" spans="6:6">
+      <c r="F168" s="98"/>
+    </row>
+    <row r="169" spans="6:6">
+      <c r="F169" s="98"/>
+    </row>
+    <row r="170" spans="6:6">
+      <c r="F170" s="98"/>
+    </row>
+    <row r="171" spans="6:6">
+      <c r="F171" s="98"/>
+    </row>
+    <row r="172" spans="6:6">
+      <c r="F172" s="98"/>
+    </row>
+    <row r="173" spans="6:6">
+      <c r="F173" s="98"/>
+    </row>
+    <row r="174" spans="6:6">
+      <c r="F174" s="98"/>
+    </row>
+    <row r="175" spans="6:6">
+      <c r="F175" s="98"/>
+    </row>
+    <row r="176" spans="6:6">
+      <c r="F176" s="98"/>
+    </row>
+    <row r="177" spans="6:6">
+      <c r="F177" s="98"/>
+    </row>
+    <row r="178" spans="6:6">
+      <c r="F178" s="98"/>
+    </row>
+    <row r="179" spans="6:6">
+      <c r="F179" s="98"/>
+    </row>
+    <row r="180" spans="6:6">
+      <c r="F180" s="98"/>
+    </row>
+    <row r="181" spans="6:6">
+      <c r="F181" s="98"/>
+    </row>
+    <row r="182" spans="6:6">
+      <c r="F182" s="98"/>
+    </row>
+    <row r="183" spans="6:6">
+      <c r="F183" s="98"/>
+    </row>
+    <row r="184" spans="6:6">
+      <c r="F184" s="98"/>
+    </row>
+    <row r="185" spans="6:6">
+      <c r="F185" s="98"/>
+    </row>
+    <row r="186" spans="6:6">
+      <c r="F186" s="98"/>
+    </row>
+    <row r="187" spans="6:6">
+      <c r="F187" s="98"/>
+    </row>
+    <row r="188" spans="6:6">
+      <c r="F188" s="98"/>
+    </row>
+    <row r="189" spans="6:6">
+      <c r="F189" s="98"/>
+    </row>
+    <row r="190" spans="6:6">
+      <c r="F190" s="98"/>
+    </row>
+    <row r="191" spans="6:6">
+      <c r="F191" s="98"/>
+    </row>
+    <row r="192" spans="6:6">
+      <c r="F192" s="98"/>
+    </row>
+    <row r="193" spans="6:6">
+      <c r="F193" s="98"/>
+    </row>
+    <row r="194" spans="6:6">
+      <c r="F194" s="98"/>
+    </row>
+    <row r="195" spans="6:6">
+      <c r="F195" s="98"/>
+    </row>
+    <row r="196" spans="6:6">
+      <c r="F196" s="98"/>
+    </row>
+    <row r="197" spans="6:6">
+      <c r="F197" s="98"/>
+    </row>
+    <row r="198" spans="6:6">
+      <c r="F198" s="98"/>
+    </row>
+    <row r="199" spans="6:6">
+      <c r="F199" s="98"/>
+    </row>
+    <row r="200" spans="6:6">
+      <c r="F200" s="98"/>
+    </row>
+    <row r="201" spans="6:6">
+      <c r="F201" s="98"/>
+    </row>
+    <row r="202" spans="6:6">
+      <c r="F202" s="98"/>
+    </row>
+    <row r="203" spans="6:6">
+      <c r="F203" s="98"/>
+    </row>
+    <row r="204" spans="6:6">
+      <c r="F204" s="98"/>
+    </row>
+    <row r="205" spans="6:6">
+      <c r="F205" s="98"/>
+    </row>
+    <row r="206" spans="6:6">
+      <c r="F206" s="98"/>
+    </row>
+    <row r="207" spans="6:6">
+      <c r="F207" s="98"/>
+    </row>
+    <row r="208" spans="6:6">
+      <c r="F208" s="98"/>
+    </row>
+    <row r="209" spans="6:6">
+      <c r="F209" s="98"/>
+    </row>
+    <row r="210" spans="6:6">
+      <c r="F210" s="98"/>
+    </row>
+    <row r="211" spans="6:6">
+      <c r="F211" s="98"/>
+    </row>
+    <row r="212" spans="6:6">
+      <c r="F212" s="98"/>
+    </row>
+    <row r="213" spans="6:6">
+      <c r="F213" s="98"/>
+    </row>
+    <row r="214" spans="6:6">
+      <c r="F214" s="98"/>
+    </row>
+    <row r="215" spans="6:6">
+      <c r="F215" s="98"/>
+    </row>
+    <row r="216" spans="6:6">
+      <c r="F216" s="98"/>
+    </row>
+    <row r="217" spans="6:6">
+      <c r="F217" s="98"/>
+    </row>
+    <row r="218" spans="6:6">
+      <c r="F218" s="98"/>
+    </row>
+    <row r="219" spans="6:6">
+      <c r="F219" s="98"/>
+    </row>
+    <row r="220" spans="6:6">
+      <c r="F220" s="98"/>
+    </row>
+    <row r="221" spans="6:6">
+      <c r="F221" s="98"/>
+    </row>
+    <row r="222" spans="6:6">
+      <c r="F222" s="98"/>
+    </row>
+    <row r="223" spans="6:6">
+      <c r="F223" s="98"/>
+    </row>
+    <row r="224" spans="6:6">
+      <c r="F224" s="98"/>
+    </row>
+    <row r="225" spans="6:6">
+      <c r="F225" s="98"/>
+    </row>
+    <row r="226" spans="6:6">
+      <c r="F226" s="98"/>
+    </row>
+    <row r="227" spans="6:6">
+      <c r="F227" s="98"/>
+    </row>
+    <row r="228" spans="6:6">
+      <c r="F228" s="98"/>
+    </row>
+    <row r="229" spans="6:6">
+      <c r="F229" s="98"/>
+    </row>
+    <row r="230" spans="6:6">
+      <c r="F230" s="98"/>
+    </row>
+    <row r="231" spans="6:6">
+      <c r="F231" s="98"/>
+    </row>
+    <row r="232" spans="6:6">
+      <c r="F232" s="98"/>
+    </row>
+    <row r="233" spans="6:6">
+      <c r="F233" s="98"/>
+    </row>
+    <row r="234" spans="6:6">
+      <c r="F234" s="98"/>
+    </row>
+    <row r="235" spans="6:6">
+      <c r="F235" s="98"/>
+    </row>
+    <row r="236" spans="6:6">
+      <c r="F236" s="98"/>
+    </row>
+    <row r="237" spans="6:6">
+      <c r="F237" s="98"/>
+    </row>
+    <row r="238" spans="6:6">
+      <c r="F238" s="98"/>
+    </row>
+    <row r="239" spans="6:6">
+      <c r="F239" s="98"/>
+    </row>
+    <row r="240" spans="6:6">
+      <c r="F240" s="98"/>
+    </row>
+    <row r="241" spans="6:6">
+      <c r="F241" s="98"/>
+    </row>
+    <row r="242" spans="6:6">
+      <c r="F242" s="98"/>
+    </row>
+    <row r="243" spans="6:6">
+      <c r="F243" s="98"/>
+    </row>
+    <row r="244" spans="6:6">
+      <c r="F244" s="98"/>
+    </row>
+    <row r="245" spans="6:6">
+      <c r="F245" s="98"/>
+    </row>
+    <row r="246" spans="6:6">
+      <c r="F246" s="98"/>
+    </row>
+    <row r="247" spans="6:6">
+      <c r="F247" s="98"/>
+    </row>
+    <row r="248" spans="6:6">
+      <c r="F248" s="98"/>
+    </row>
+    <row r="249" spans="6:6">
+      <c r="F249" s="98"/>
+    </row>
+    <row r="250" spans="6:6">
+      <c r="F250" s="98"/>
+    </row>
+    <row r="251" spans="6:6">
+      <c r="F251" s="98"/>
+    </row>
+    <row r="252" spans="6:6">
+      <c r="F252" s="98"/>
+    </row>
+    <row r="253" spans="6:6">
+      <c r="F253" s="98"/>
+    </row>
+    <row r="254" spans="6:6">
+      <c r="F254" s="98"/>
+    </row>
+    <row r="255" spans="6:6">
+      <c r="F255" s="98"/>
+    </row>
+    <row r="256" spans="6:6">
+      <c r="F256" s="98"/>
+    </row>
+    <row r="257" spans="6:6">
+      <c r="F257" s="98"/>
+    </row>
+    <row r="258" spans="6:6">
+      <c r="F258" s="98"/>
+    </row>
+    <row r="259" spans="6:6">
+      <c r="F259" s="98"/>
+    </row>
+    <row r="260" spans="6:6">
+      <c r="F260" s="98"/>
+    </row>
+    <row r="261" spans="6:6">
+      <c r="F261" s="98"/>
+    </row>
+    <row r="262" spans="6:6">
+      <c r="F262" s="98"/>
+    </row>
+    <row r="263" spans="6:6">
+      <c r="F263" s="98"/>
+    </row>
+    <row r="264" spans="6:6">
+      <c r="F264" s="98"/>
+    </row>
+    <row r="265" spans="6:6">
+      <c r="F265" s="98"/>
+    </row>
+    <row r="266" spans="6:6">
+      <c r="F266" s="98"/>
+    </row>
+    <row r="267" spans="6:6">
+      <c r="F267" s="98"/>
+    </row>
+    <row r="268" spans="6:6">
+      <c r="F268" s="98"/>
+    </row>
+    <row r="269" spans="6:6">
+      <c r="F269" s="98"/>
+    </row>
+    <row r="270" spans="6:6">
+      <c r="F270" s="98"/>
+    </row>
+    <row r="271" spans="6:6">
+      <c r="F271" s="98"/>
+    </row>
+    <row r="272" spans="6:6">
+      <c r="F272" s="98"/>
+    </row>
+    <row r="273" spans="6:6">
+      <c r="F273" s="98"/>
+    </row>
+    <row r="274" spans="6:6">
+      <c r="F274" s="98"/>
+    </row>
+    <row r="275" spans="6:6">
+      <c r="F275" s="98"/>
+    </row>
+    <row r="276" spans="6:6">
+      <c r="F276" s="98"/>
+    </row>
+    <row r="277" spans="6:6">
+      <c r="F277" s="98"/>
+    </row>
+    <row r="278" spans="6:6">
+      <c r="F278" s="98"/>
+    </row>
+    <row r="279" spans="6:6">
+      <c r="F279" s="98"/>
+    </row>
+    <row r="280" spans="6:6">
+      <c r="F280" s="98"/>
+    </row>
+    <row r="281" spans="6:6">
+      <c r="F281" s="98"/>
+    </row>
+    <row r="282" spans="6:6">
+      <c r="F282" s="98"/>
+    </row>
+    <row r="283" spans="6:6">
+      <c r="F283" s="98"/>
+    </row>
+    <row r="284" spans="6:6">
+      <c r="F284" s="98"/>
+    </row>
+    <row r="285" spans="6:6">
+      <c r="F285" s="98"/>
+    </row>
+    <row r="286" spans="6:6">
+      <c r="F286" s="98"/>
+    </row>
+    <row r="287" spans="6:6">
+      <c r="F287" s="98"/>
+    </row>
+    <row r="288" spans="6:6">
+      <c r="F288" s="98"/>
+    </row>
+    <row r="289" spans="6:6">
+      <c r="F289" s="98"/>
+    </row>
+    <row r="290" spans="6:6">
+      <c r="F290" s="98"/>
+    </row>
+    <row r="291" spans="6:6">
+      <c r="F291" s="98"/>
+    </row>
+    <row r="292" spans="6:6">
+      <c r="F292" s="98"/>
+    </row>
+    <row r="293" spans="6:6">
+      <c r="F293" s="98"/>
+    </row>
+    <row r="294" spans="6:6">
+      <c r="F294" s="98"/>
+    </row>
+    <row r="295" spans="6:6">
+      <c r="F295" s="98"/>
+    </row>
+    <row r="296" spans="6:6">
+      <c r="F296" s="98"/>
+    </row>
+    <row r="297" spans="6:6">
+      <c r="F297" s="98"/>
+    </row>
+    <row r="298" spans="6:6">
+      <c r="F298" s="98"/>
+    </row>
+    <row r="299" spans="6:6">
+      <c r="F299" s="98"/>
+    </row>
+    <row r="300" spans="6:6">
+      <c r="F300" s="98"/>
+    </row>
+    <row r="301" spans="6:6">
+      <c r="F301" s="98"/>
+    </row>
+    <row r="302" spans="6:6">
+      <c r="F302" s="98"/>
+    </row>
+    <row r="303" spans="6:6">
+      <c r="F303" s="98"/>
+    </row>
+    <row r="304" spans="6:6">
+      <c r="F304" s="98"/>
+    </row>
+    <row r="305" spans="6:6">
+      <c r="F305" s="98"/>
+    </row>
+    <row r="306" spans="6:6">
+      <c r="F306" s="98"/>
+    </row>
+    <row r="307" spans="6:6">
+      <c r="F307" s="98"/>
+    </row>
+    <row r="308" spans="6:6">
+      <c r="F308" s="98"/>
+    </row>
+    <row r="309" spans="6:6">
+      <c r="F309" s="98"/>
+    </row>
+    <row r="310" spans="6:6">
+      <c r="F310" s="98"/>
+    </row>
+    <row r="311" spans="6:6">
+      <c r="F311" s="98"/>
+    </row>
+    <row r="312" spans="6:6">
+      <c r="F312" s="98"/>
+    </row>
+    <row r="313" spans="6:6">
+      <c r="F313" s="98"/>
+    </row>
+    <row r="314" spans="6:6">
+      <c r="F314" s="98"/>
+    </row>
+    <row r="315" spans="6:6">
+      <c r="F315" s="98"/>
+    </row>
+    <row r="316" spans="6:6">
+      <c r="F316" s="98"/>
+    </row>
+    <row r="317" spans="6:6">
+      <c r="F317" s="98"/>
+    </row>
+    <row r="318" spans="6:6">
+      <c r="F318" s="98"/>
+    </row>
+    <row r="319" spans="6:6">
+      <c r="F319" s="98"/>
+    </row>
+    <row r="320" spans="6:6">
+      <c r="F320" s="98"/>
+    </row>
+    <row r="321" spans="6:6">
+      <c r="F321" s="98"/>
+    </row>
+    <row r="322" spans="6:6">
+      <c r="F322" s="98"/>
+    </row>
+    <row r="323" spans="6:6">
+      <c r="F323" s="98"/>
+    </row>
+    <row r="324" spans="6:6">
+      <c r="F324" s="98"/>
+    </row>
+    <row r="325" spans="6:6">
+      <c r="F325" s="98"/>
+    </row>
+    <row r="326" spans="6:6">
+      <c r="F326" s="98"/>
+    </row>
+    <row r="327" spans="6:6">
+      <c r="F327" s="98"/>
+    </row>
+    <row r="328" spans="6:6">
+      <c r="F328" s="98"/>
+    </row>
+    <row r="329" spans="6:6">
+      <c r="F329" s="98"/>
+    </row>
+    <row r="330" spans="6:6">
+      <c r="F330" s="98"/>
+    </row>
+    <row r="331" spans="6:6">
+      <c r="F331" s="98"/>
+    </row>
+    <row r="332" spans="6:6">
+      <c r="F332" s="98"/>
+    </row>
+    <row r="333" spans="6:6">
+      <c r="F333" s="98"/>
+    </row>
+    <row r="334" spans="6:6">
+      <c r="F334" s="98"/>
+    </row>
+    <row r="335" spans="6:6">
+      <c r="F335" s="98"/>
+    </row>
+    <row r="336" spans="6:6">
+      <c r="F336" s="98"/>
+    </row>
+    <row r="337" spans="6:6">
+      <c r="F337" s="98"/>
+    </row>
+    <row r="338" spans="6:6">
+      <c r="F338" s="98"/>
+    </row>
+    <row r="339" spans="6:6">
+      <c r="F339" s="98"/>
+    </row>
+    <row r="340" spans="6:6">
+      <c r="F340" s="98"/>
+    </row>
+    <row r="341" spans="6:6">
+      <c r="F341" s="98"/>
+    </row>
+    <row r="342" spans="6:6">
+      <c r="F342" s="98"/>
+    </row>
+    <row r="343" spans="6:6">
+      <c r="F343" s="98"/>
+    </row>
+    <row r="344" spans="6:6">
+      <c r="F344" s="98"/>
+    </row>
+    <row r="345" spans="6:6">
+      <c r="F345" s="98"/>
+    </row>
+    <row r="346" spans="6:6">
+      <c r="F346" s="98"/>
+    </row>
+    <row r="347" spans="6:6">
+      <c r="F347" s="98"/>
+    </row>
+    <row r="348" spans="6:6">
+      <c r="F348" s="98"/>
+    </row>
+    <row r="349" spans="6:6">
+      <c r="F349" s="98"/>
+    </row>
+    <row r="350" spans="6:6">
+      <c r="F350" s="98"/>
+    </row>
+    <row r="351" spans="6:6">
+      <c r="F351" s="98"/>
+    </row>
+    <row r="352" spans="6:6">
+      <c r="F352" s="98"/>
+    </row>
+    <row r="353" spans="6:6">
+      <c r="F353" s="98"/>
+    </row>
+    <row r="354" spans="6:6">
+      <c r="F354" s="98"/>
+    </row>
+    <row r="355" spans="6:6">
+      <c r="F355" s="98"/>
+    </row>
+    <row r="356" spans="6:6">
+      <c r="F356" s="98"/>
+    </row>
+    <row r="357" spans="6:6">
+      <c r="F357" s="98"/>
+    </row>
+    <row r="358" spans="6:6">
+      <c r="F358" s="98"/>
+    </row>
+    <row r="359" spans="6:6">
+      <c r="F359" s="98"/>
+    </row>
+    <row r="360" spans="6:6">
+      <c r="F360" s="98"/>
+    </row>
+    <row r="361" spans="6:6">
+      <c r="F361" s="98"/>
+    </row>
+    <row r="362" spans="6:6">
+      <c r="F362" s="98"/>
+    </row>
+    <row r="363" spans="6:6">
+      <c r="F363" s="98"/>
+    </row>
+    <row r="364" spans="6:6">
+      <c r="F364" s="98"/>
+    </row>
+    <row r="365" spans="6:6">
+      <c r="F365" s="98"/>
+    </row>
+    <row r="366" spans="6:6">
+      <c r="F366" s="98"/>
+    </row>
+    <row r="367" spans="6:6">
+      <c r="F367" s="98"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E3B14C-5AF3-4B98-8539-6B6254E43F90}">
   <dimension ref="B1:AB77"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4257,12 +10830,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:KK383"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4279,306 +10852,306 @@
     </row>
     <row r="3" spans="2:297" ht="7.95" customHeight="1"/>
     <row r="4" spans="2:297" s="80" customFormat="1" ht="19.95" customHeight="1">
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="144" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="110"/>
-      <c r="G4" s="110"/>
-      <c r="H4" s="110"/>
-      <c r="J4" s="110" t="s">
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="J4" s="144" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="110"/>
-      <c r="M4" s="110"/>
-      <c r="N4" s="110"/>
-      <c r="O4" s="110"/>
-      <c r="P4" s="110"/>
-      <c r="R4" s="110" t="s">
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="R4" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="110"/>
-      <c r="T4" s="110"/>
-      <c r="U4" s="110"/>
-      <c r="V4" s="110"/>
-      <c r="W4" s="110"/>
-      <c r="X4" s="110"/>
-      <c r="Z4" s="110" t="s">
+      <c r="S4" s="144"/>
+      <c r="T4" s="144"/>
+      <c r="U4" s="144"/>
+      <c r="V4" s="144"/>
+      <c r="W4" s="144"/>
+      <c r="X4" s="144"/>
+      <c r="Z4" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="AA4" s="110"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AH4" s="110" t="s">
+      <c r="AA4" s="144"/>
+      <c r="AB4" s="144"/>
+      <c r="AC4" s="144"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="144"/>
+      <c r="AF4" s="144"/>
+      <c r="AH4" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="AI4" s="110"/>
-      <c r="AJ4" s="110"/>
-      <c r="AK4" s="110"/>
-      <c r="AL4" s="110"/>
-      <c r="AM4" s="110"/>
-      <c r="AN4" s="110"/>
-      <c r="AP4" s="110" t="s">
+      <c r="AI4" s="144"/>
+      <c r="AJ4" s="144"/>
+      <c r="AK4" s="144"/>
+      <c r="AL4" s="144"/>
+      <c r="AM4" s="144"/>
+      <c r="AN4" s="144"/>
+      <c r="AP4" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="AQ4" s="110"/>
-      <c r="AR4" s="110"/>
-      <c r="AS4" s="110"/>
-      <c r="AT4" s="110"/>
-      <c r="AU4" s="110"/>
-      <c r="AV4" s="110"/>
-      <c r="AX4" s="110" t="s">
+      <c r="AQ4" s="144"/>
+      <c r="AR4" s="144"/>
+      <c r="AS4" s="144"/>
+      <c r="AT4" s="144"/>
+      <c r="AU4" s="144"/>
+      <c r="AV4" s="144"/>
+      <c r="AX4" s="144" t="s">
         <v>13</v>
       </c>
-      <c r="AY4" s="110"/>
-      <c r="AZ4" s="110"/>
-      <c r="BA4" s="110"/>
-      <c r="BB4" s="110"/>
-      <c r="BC4" s="110"/>
-      <c r="BD4" s="110"/>
-      <c r="BF4" s="110" t="s">
+      <c r="AY4" s="144"/>
+      <c r="AZ4" s="144"/>
+      <c r="BA4" s="144"/>
+      <c r="BB4" s="144"/>
+      <c r="BC4" s="144"/>
+      <c r="BD4" s="144"/>
+      <c r="BF4" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="BG4" s="110"/>
-      <c r="BH4" s="110"/>
-      <c r="BI4" s="110"/>
-      <c r="BJ4" s="110"/>
-      <c r="BK4" s="110"/>
-      <c r="BL4" s="110"/>
+      <c r="BG4" s="144"/>
+      <c r="BH4" s="144"/>
+      <c r="BI4" s="144"/>
+      <c r="BJ4" s="144"/>
+      <c r="BK4" s="144"/>
+      <c r="BL4" s="144"/>
       <c r="BM4" s="81"/>
-      <c r="BN4" s="110" t="s">
+      <c r="BN4" s="144" t="s">
         <v>15</v>
       </c>
-      <c r="BO4" s="110"/>
-      <c r="BP4" s="110"/>
-      <c r="BQ4" s="110"/>
-      <c r="BR4" s="110"/>
-      <c r="BS4" s="110"/>
-      <c r="BT4" s="110"/>
-      <c r="BV4" s="110" t="s">
+      <c r="BO4" s="144"/>
+      <c r="BP4" s="144"/>
+      <c r="BQ4" s="144"/>
+      <c r="BR4" s="144"/>
+      <c r="BS4" s="144"/>
+      <c r="BT4" s="144"/>
+      <c r="BV4" s="144" t="s">
         <v>16</v>
       </c>
-      <c r="BW4" s="110"/>
-      <c r="BX4" s="110"/>
-      <c r="BY4" s="110"/>
-      <c r="BZ4" s="110"/>
-      <c r="CA4" s="110"/>
-      <c r="CB4" s="110"/>
-      <c r="CD4" s="110" t="s">
+      <c r="BW4" s="144"/>
+      <c r="BX4" s="144"/>
+      <c r="BY4" s="144"/>
+      <c r="BZ4" s="144"/>
+      <c r="CA4" s="144"/>
+      <c r="CB4" s="144"/>
+      <c r="CD4" s="144" t="s">
         <v>17</v>
       </c>
-      <c r="CE4" s="110"/>
-      <c r="CF4" s="110"/>
-      <c r="CG4" s="110"/>
-      <c r="CH4" s="110"/>
-      <c r="CI4" s="110"/>
-      <c r="CJ4" s="110"/>
-      <c r="CL4" s="110" t="s">
+      <c r="CE4" s="144"/>
+      <c r="CF4" s="144"/>
+      <c r="CG4" s="144"/>
+      <c r="CH4" s="144"/>
+      <c r="CI4" s="144"/>
+      <c r="CJ4" s="144"/>
+      <c r="CL4" s="144" t="s">
         <v>18</v>
       </c>
-      <c r="CM4" s="110"/>
-      <c r="CN4" s="110"/>
-      <c r="CO4" s="110"/>
-      <c r="CP4" s="110"/>
-      <c r="CQ4" s="110"/>
-      <c r="CR4" s="110"/>
-      <c r="CT4" s="110" t="s">
+      <c r="CM4" s="144"/>
+      <c r="CN4" s="144"/>
+      <c r="CO4" s="144"/>
+      <c r="CP4" s="144"/>
+      <c r="CQ4" s="144"/>
+      <c r="CR4" s="144"/>
+      <c r="CT4" s="144" t="s">
         <v>19</v>
       </c>
-      <c r="CU4" s="110"/>
-      <c r="CV4" s="110"/>
-      <c r="CW4" s="110"/>
-      <c r="CX4" s="110"/>
-      <c r="CY4" s="110"/>
-      <c r="CZ4" s="110"/>
-      <c r="DB4" s="110" t="s">
+      <c r="CU4" s="144"/>
+      <c r="CV4" s="144"/>
+      <c r="CW4" s="144"/>
+      <c r="CX4" s="144"/>
+      <c r="CY4" s="144"/>
+      <c r="CZ4" s="144"/>
+      <c r="DB4" s="144" t="s">
         <v>20</v>
       </c>
-      <c r="DC4" s="110"/>
-      <c r="DD4" s="110"/>
-      <c r="DE4" s="110"/>
-      <c r="DF4" s="110"/>
-      <c r="DG4" s="110"/>
-      <c r="DH4" s="110"/>
-      <c r="DJ4" s="110" t="s">
+      <c r="DC4" s="144"/>
+      <c r="DD4" s="144"/>
+      <c r="DE4" s="144"/>
+      <c r="DF4" s="144"/>
+      <c r="DG4" s="144"/>
+      <c r="DH4" s="144"/>
+      <c r="DJ4" s="144" t="s">
         <v>21</v>
       </c>
-      <c r="DK4" s="110"/>
-      <c r="DL4" s="110"/>
-      <c r="DM4" s="110"/>
-      <c r="DN4" s="110"/>
-      <c r="DO4" s="110"/>
-      <c r="DP4" s="110"/>
-      <c r="DR4" s="110" t="s">
+      <c r="DK4" s="144"/>
+      <c r="DL4" s="144"/>
+      <c r="DM4" s="144"/>
+      <c r="DN4" s="144"/>
+      <c r="DO4" s="144"/>
+      <c r="DP4" s="144"/>
+      <c r="DR4" s="144" t="s">
         <v>22</v>
       </c>
-      <c r="DS4" s="110"/>
-      <c r="DT4" s="110"/>
-      <c r="DU4" s="110"/>
-      <c r="DV4" s="110"/>
-      <c r="DW4" s="110"/>
-      <c r="DX4" s="110"/>
-      <c r="DZ4" s="110" t="s">
+      <c r="DS4" s="144"/>
+      <c r="DT4" s="144"/>
+      <c r="DU4" s="144"/>
+      <c r="DV4" s="144"/>
+      <c r="DW4" s="144"/>
+      <c r="DX4" s="144"/>
+      <c r="DZ4" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="EA4" s="110"/>
-      <c r="EB4" s="110"/>
-      <c r="EC4" s="110"/>
-      <c r="ED4" s="110"/>
-      <c r="EE4" s="110"/>
-      <c r="EF4" s="110"/>
+      <c r="EA4" s="144"/>
+      <c r="EB4" s="144"/>
+      <c r="EC4" s="144"/>
+      <c r="ED4" s="144"/>
+      <c r="EE4" s="144"/>
+      <c r="EF4" s="144"/>
       <c r="EG4" s="81"/>
-      <c r="EH4" s="110" t="s">
+      <c r="EH4" s="144" t="s">
         <v>24</v>
       </c>
-      <c r="EI4" s="110"/>
-      <c r="EJ4" s="110"/>
-      <c r="EK4" s="110"/>
-      <c r="EL4" s="110"/>
-      <c r="EM4" s="110"/>
-      <c r="EN4" s="110"/>
-      <c r="EP4" s="110" t="s">
+      <c r="EI4" s="144"/>
+      <c r="EJ4" s="144"/>
+      <c r="EK4" s="144"/>
+      <c r="EL4" s="144"/>
+      <c r="EM4" s="144"/>
+      <c r="EN4" s="144"/>
+      <c r="EP4" s="144" t="s">
         <v>25</v>
       </c>
-      <c r="EQ4" s="110"/>
-      <c r="ER4" s="110"/>
-      <c r="ES4" s="110"/>
-      <c r="ET4" s="110"/>
-      <c r="EU4" s="110"/>
-      <c r="EV4" s="110"/>
-      <c r="EX4" s="110" t="s">
+      <c r="EQ4" s="144"/>
+      <c r="ER4" s="144"/>
+      <c r="ES4" s="144"/>
+      <c r="ET4" s="144"/>
+      <c r="EU4" s="144"/>
+      <c r="EV4" s="144"/>
+      <c r="EX4" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="EY4" s="110"/>
-      <c r="EZ4" s="110"/>
-      <c r="FA4" s="110"/>
-      <c r="FB4" s="110"/>
-      <c r="FC4" s="110"/>
-      <c r="FD4" s="110"/>
-      <c r="FF4" s="110" t="s">
+      <c r="EY4" s="144"/>
+      <c r="EZ4" s="144"/>
+      <c r="FA4" s="144"/>
+      <c r="FB4" s="144"/>
+      <c r="FC4" s="144"/>
+      <c r="FD4" s="144"/>
+      <c r="FF4" s="144" t="s">
         <v>27</v>
       </c>
-      <c r="FG4" s="110"/>
-      <c r="FH4" s="110"/>
-      <c r="FI4" s="110"/>
-      <c r="FJ4" s="110"/>
-      <c r="FK4" s="110"/>
-      <c r="FL4" s="110"/>
-      <c r="FN4" s="110" t="s">
+      <c r="FG4" s="144"/>
+      <c r="FH4" s="144"/>
+      <c r="FI4" s="144"/>
+      <c r="FJ4" s="144"/>
+      <c r="FK4" s="144"/>
+      <c r="FL4" s="144"/>
+      <c r="FN4" s="144" t="s">
         <v>28</v>
       </c>
-      <c r="FO4" s="110"/>
-      <c r="FP4" s="110"/>
-      <c r="FQ4" s="110"/>
-      <c r="FR4" s="110"/>
-      <c r="FS4" s="110"/>
-      <c r="FT4" s="110"/>
-      <c r="FV4" s="110" t="s">
+      <c r="FO4" s="144"/>
+      <c r="FP4" s="144"/>
+      <c r="FQ4" s="144"/>
+      <c r="FR4" s="144"/>
+      <c r="FS4" s="144"/>
+      <c r="FT4" s="144"/>
+      <c r="FV4" s="144" t="s">
         <v>29</v>
       </c>
-      <c r="FW4" s="110"/>
-      <c r="FX4" s="110"/>
-      <c r="FY4" s="110"/>
-      <c r="FZ4" s="110"/>
-      <c r="GA4" s="110"/>
-      <c r="GB4" s="110"/>
-      <c r="GD4" s="110" t="s">
+      <c r="FW4" s="144"/>
+      <c r="FX4" s="144"/>
+      <c r="FY4" s="144"/>
+      <c r="FZ4" s="144"/>
+      <c r="GA4" s="144"/>
+      <c r="GB4" s="144"/>
+      <c r="GD4" s="144" t="s">
         <v>30</v>
       </c>
-      <c r="GE4" s="110"/>
-      <c r="GF4" s="110"/>
-      <c r="GG4" s="110"/>
-      <c r="GH4" s="110"/>
-      <c r="GI4" s="110"/>
-      <c r="GJ4" s="110"/>
-      <c r="GL4" s="110" t="s">
+      <c r="GE4" s="144"/>
+      <c r="GF4" s="144"/>
+      <c r="GG4" s="144"/>
+      <c r="GH4" s="144"/>
+      <c r="GI4" s="144"/>
+      <c r="GJ4" s="144"/>
+      <c r="GL4" s="144" t="s">
         <v>31</v>
       </c>
-      <c r="GM4" s="110"/>
-      <c r="GN4" s="110"/>
-      <c r="GO4" s="110"/>
-      <c r="GP4" s="110"/>
-      <c r="GQ4" s="110"/>
-      <c r="GR4" s="110"/>
-      <c r="GT4" s="110" t="s">
+      <c r="GM4" s="144"/>
+      <c r="GN4" s="144"/>
+      <c r="GO4" s="144"/>
+      <c r="GP4" s="144"/>
+      <c r="GQ4" s="144"/>
+      <c r="GR4" s="144"/>
+      <c r="GT4" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="GU4" s="110"/>
-      <c r="GV4" s="110"/>
-      <c r="GW4" s="110"/>
-      <c r="GX4" s="110"/>
-      <c r="GY4" s="110"/>
-      <c r="GZ4" s="110"/>
+      <c r="GU4" s="144"/>
+      <c r="GV4" s="144"/>
+      <c r="GW4" s="144"/>
+      <c r="GX4" s="144"/>
+      <c r="GY4" s="144"/>
+      <c r="GZ4" s="144"/>
       <c r="HA4" s="81"/>
-      <c r="HB4" s="110" t="s">
+      <c r="HB4" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="HC4" s="110"/>
-      <c r="HD4" s="110"/>
-      <c r="HE4" s="110"/>
-      <c r="HF4" s="110"/>
-      <c r="HG4" s="110"/>
-      <c r="HH4" s="110"/>
-      <c r="HJ4" s="110" t="s">
+      <c r="HC4" s="144"/>
+      <c r="HD4" s="144"/>
+      <c r="HE4" s="144"/>
+      <c r="HF4" s="144"/>
+      <c r="HG4" s="144"/>
+      <c r="HH4" s="144"/>
+      <c r="HJ4" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="HK4" s="110"/>
-      <c r="HL4" s="110"/>
-      <c r="HM4" s="110"/>
-      <c r="HN4" s="110"/>
-      <c r="HO4" s="110"/>
-      <c r="HP4" s="110"/>
-      <c r="HR4" s="110" t="s">
+      <c r="HK4" s="144"/>
+      <c r="HL4" s="144"/>
+      <c r="HM4" s="144"/>
+      <c r="HN4" s="144"/>
+      <c r="HO4" s="144"/>
+      <c r="HP4" s="144"/>
+      <c r="HR4" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="HS4" s="110"/>
-      <c r="HT4" s="110"/>
-      <c r="HU4" s="110"/>
-      <c r="HV4" s="110"/>
-      <c r="HW4" s="110"/>
-      <c r="HX4" s="110"/>
-      <c r="HZ4" s="110" t="s">
+      <c r="HS4" s="144"/>
+      <c r="HT4" s="144"/>
+      <c r="HU4" s="144"/>
+      <c r="HV4" s="144"/>
+      <c r="HW4" s="144"/>
+      <c r="HX4" s="144"/>
+      <c r="HZ4" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="IA4" s="110"/>
-      <c r="IB4" s="110"/>
-      <c r="IC4" s="110"/>
-      <c r="ID4" s="110"/>
-      <c r="IE4" s="110"/>
-      <c r="IF4" s="110"/>
-      <c r="IH4" s="110" t="s">
+      <c r="IA4" s="144"/>
+      <c r="IB4" s="144"/>
+      <c r="IC4" s="144"/>
+      <c r="ID4" s="144"/>
+      <c r="IE4" s="144"/>
+      <c r="IF4" s="144"/>
+      <c r="IH4" s="144" t="s">
         <v>37</v>
       </c>
-      <c r="II4" s="110"/>
-      <c r="IJ4" s="110"/>
-      <c r="IK4" s="110"/>
-      <c r="IL4" s="110"/>
-      <c r="IM4" s="110"/>
-      <c r="IN4" s="110"/>
-      <c r="IP4" s="110" t="s">
+      <c r="II4" s="144"/>
+      <c r="IJ4" s="144"/>
+      <c r="IK4" s="144"/>
+      <c r="IL4" s="144"/>
+      <c r="IM4" s="144"/>
+      <c r="IN4" s="144"/>
+      <c r="IP4" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="IQ4" s="110"/>
-      <c r="IR4" s="110"/>
-      <c r="IS4" s="110"/>
-      <c r="IT4" s="110"/>
-      <c r="IU4" s="110"/>
-      <c r="IV4" s="110"/>
-      <c r="IX4" s="110" t="s">
+      <c r="IQ4" s="144"/>
+      <c r="IR4" s="144"/>
+      <c r="IS4" s="144"/>
+      <c r="IT4" s="144"/>
+      <c r="IU4" s="144"/>
+      <c r="IV4" s="144"/>
+      <c r="IX4" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="IY4" s="110"/>
-      <c r="IZ4" s="110"/>
-      <c r="JA4" s="110"/>
-      <c r="JB4" s="110"/>
-      <c r="JC4" s="110"/>
-      <c r="JD4" s="110"/>
+      <c r="IY4" s="144"/>
+      <c r="IZ4" s="144"/>
+      <c r="JA4" s="144"/>
+      <c r="JB4" s="144"/>
+      <c r="JC4" s="144"/>
+      <c r="JD4" s="144"/>
       <c r="JL4" s="81"/>
       <c r="JU4" s="81"/>
       <c r="KD4" s="81"/>
@@ -7911,7 +14484,10 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="HB4:HH4"/>
+    <mergeCell ref="CL4:CR4"/>
+    <mergeCell ref="GL4:GR4"/>
+    <mergeCell ref="DB4:DH4"/>
+    <mergeCell ref="IH4:IN4"/>
     <mergeCell ref="HJ4:HP4"/>
     <mergeCell ref="B4:H4"/>
     <mergeCell ref="J4:P4"/>
@@ -7925,11 +14501,8 @@
     <mergeCell ref="BN4:BT4"/>
     <mergeCell ref="BV4:CB4"/>
     <mergeCell ref="CD4:CJ4"/>
-    <mergeCell ref="CL4:CR4"/>
+    <mergeCell ref="HB4:HH4"/>
     <mergeCell ref="CT4:CZ4"/>
-    <mergeCell ref="DB4:DH4"/>
-    <mergeCell ref="IH4:IN4"/>
-    <mergeCell ref="IP4:IV4"/>
     <mergeCell ref="IX4:JD4"/>
     <mergeCell ref="DR4:DX4"/>
     <mergeCell ref="DZ4:EF4"/>
@@ -7942,8 +14515,8 @@
     <mergeCell ref="FN4:FT4"/>
     <mergeCell ref="FV4:GB4"/>
     <mergeCell ref="GD4:GJ4"/>
-    <mergeCell ref="GL4:GR4"/>
     <mergeCell ref="GT4:GZ4"/>
+    <mergeCell ref="IP4:IV4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7951,12 +14524,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F015E65-22C8-4607-B8E2-91E875B526DA}">
   <dimension ref="B1:I5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
